--- a/Mini-projet-trey_Buchser_Joye/output/Out_Load_Curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/output/Out_Load_Curves.xlsx
@@ -744,7 +744,7 @@
         <v>0.002170363652072074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007133640348940392</v>
+        <v>0.0007133640348940391</v>
       </c>
       <c r="F2" t="n">
         <v>0.0006923175576431617</v>
@@ -759,10 +759,10 @@
         <v>0.0002240306771713079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001478025283025136</v>
+        <v>0.001478025283025135</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004858034175828528</v>
+        <v>0.0004858034175828527</v>
       </c>
       <c r="L2" t="n">
         <v>0.001455141766902497</v>
@@ -786,7 +786,7 @@
         <v>0.003934215453006348</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001293114085752248</v>
+        <v>0.001293114085752247</v>
       </c>
       <c r="T2" t="n">
         <v>0.00388343325775279</v>
@@ -828,7 +828,7 @@
         <v>0.002439234374250031</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0008017375676218959</v>
+        <v>0.0008017375676218957</v>
       </c>
       <c r="AH2" t="n">
         <v>0.004591901877972399</v>
@@ -867,16 +867,16 @@
         <v>0.0003950544313739768</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.001209461229612685</v>
+        <v>0.001209461229612684</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0003975306820037728</v>
+        <v>0.0003975306820037727</v>
       </c>
       <c r="AV2" t="n">
         <v>0.001238045867520162</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0004069259981362539</v>
+        <v>0.0004069259981362538</v>
       </c>
     </row>
     <row r="3">
@@ -889,10 +889,10 @@
         <v>0.001658642153245268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005451693119513638</v>
+        <v>0.0005451693119513637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002371762025899723</v>
+        <v>0.002371762025899722</v>
       </c>
       <c r="E3" t="n">
         <v>0.0007795604791800582</v>
@@ -916,7 +916,7 @@
         <v>0.0003655141547807224</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001590171297674017</v>
+        <v>0.001590171297674016</v>
       </c>
       <c r="M3" t="n">
         <v>0.0005226640300570959</v>
@@ -928,19 +928,19 @@
         <v>0.001270822616364833</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005528720632421691</v>
+        <v>0.005528720632421692</v>
       </c>
       <c r="Q3" t="n">
         <v>0.001817202593851442</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003034085638646775</v>
+        <v>0.003034085638646774</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0009972557231746548</v>
+        <v>0.0009972557231746546</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004203442476316859</v>
+        <v>0.004203442476316858</v>
       </c>
       <c r="U3" t="n">
         <v>0.001381604728999032</v>
@@ -973,7 +973,7 @@
         <v>0.001864119384285372</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0006127064117704109</v>
+        <v>0.0006127064117704108</v>
       </c>
       <c r="AF3" t="n">
         <v>0.002665582542166246</v>
@@ -1021,13 +1021,13 @@
         <v>0.001255694457044362</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0004127268089916846</v>
+        <v>0.0004127268089916845</v>
       </c>
       <c r="AV3" t="n">
         <v>0.001164455728541691</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0003827380891561269</v>
+        <v>0.0003827380891561268</v>
       </c>
     </row>
     <row r="4">
@@ -1067,7 +1067,7 @@
         <v>0.0003520913185882101</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001469439011337129</v>
+        <v>0.001469439011337128</v>
       </c>
       <c r="M4" t="n">
         <v>0.0004829812465562575</v>
@@ -1124,13 +1124,13 @@
         <v>0.00179566302271557</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.00059020589382404</v>
+        <v>0.0005902058938240399</v>
       </c>
       <c r="AF4" t="n">
         <v>0.002463200650852925</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.000809614901801587</v>
+        <v>0.0008096149018015869</v>
       </c>
       <c r="AH4" t="n">
         <v>0.003530135234812926</v>
@@ -1166,10 +1166,10 @@
         <v>0.001213736728552092</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0003989359705468653</v>
+        <v>0.0003989359705468652</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.001250146469752561</v>
+        <v>0.00125014646975256</v>
       </c>
       <c r="AU4" t="n">
         <v>0.0004109032737531351</v>
@@ -1178,7 +1178,7 @@
         <v>0.001153633649280151</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0003791810437178729</v>
+        <v>0.0003791810437178728</v>
       </c>
     </row>
     <row r="5">
@@ -1191,7 +1191,7 @@
         <v>0.001543849122865299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005074386674801536</v>
+        <v>0.0005074386674801535</v>
       </c>
       <c r="D5" t="n">
         <v>0.002035308271975886</v>
@@ -1215,7 +1215,7 @@
         <v>0.00103508890702823</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003402172711871414</v>
+        <v>0.0003402172711871413</v>
       </c>
       <c r="L5" t="n">
         <v>0.001364592552149831</v>
@@ -1230,7 +1230,7 @@
         <v>0.001182870203650318</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004744426596653579</v>
+        <v>0.00474442659665358</v>
       </c>
       <c r="Q5" t="n">
         <v>0.001559417610507881</v>
@@ -1323,13 +1323,13 @@
         <v>0.001253845127947095</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004121189639121681</v>
+        <v>0.000412118963912168</v>
       </c>
       <c r="AV5" t="n">
         <v>0.001147140401723227</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0003770468164549206</v>
+        <v>0.0003770468164549205</v>
       </c>
     </row>
     <row r="6">
@@ -1372,7 +1372,7 @@
         <v>0.001269277589252287</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0004171913686469728</v>
+        <v>0.0004171913686469727</v>
       </c>
       <c r="N6" t="n">
         <v>0.003456819355098961</v>
@@ -1381,7 +1381,7 @@
         <v>0.001136201576495677</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004413034750554377</v>
+        <v>0.004413034750554378</v>
       </c>
       <c r="Q6" t="n">
         <v>0.001450494378109194</v>
@@ -1390,7 +1390,7 @@
         <v>0.002740762056219911</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0009008449239568228</v>
+        <v>0.0009008449239568227</v>
       </c>
       <c r="T6" t="n">
         <v>0.00339994559355691</v>
@@ -1426,7 +1426,7 @@
         <v>0.001666649110526328</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0005478010715404946</v>
+        <v>0.0005478010715404944</v>
       </c>
       <c r="AF6" t="n">
         <v>0.002127672778412418</v>
@@ -1474,13 +1474,13 @@
         <v>0.001253845127947095</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0004121189639121681</v>
+        <v>0.000412118963912168</v>
       </c>
       <c r="AV6" t="n">
         <v>0.001138482738313995</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0003742011801043174</v>
+        <v>0.0003742011801043173</v>
       </c>
     </row>
     <row r="7">
@@ -1514,7 +1514,7 @@
         <v>0.0001812300565326846</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0009345643394260954</v>
+        <v>0.0009345643394260953</v>
       </c>
       <c r="K7" t="n">
         <v>0.0003071764436363416</v>
@@ -1541,7 +1541,7 @@
         <v>0.002590365647589154</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0008514120149639076</v>
+        <v>0.0008514120149639075</v>
       </c>
       <c r="T7" t="n">
         <v>0.003166664581274316</v>
@@ -1577,13 +1577,13 @@
         <v>0.00156659750515508</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000514915699157337</v>
+        <v>0.0005149156991573369</v>
       </c>
       <c r="AF7" t="n">
         <v>0.001973223440304883</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0006485671807945685</v>
+        <v>0.0006485671807945684</v>
       </c>
       <c r="AH7" t="n">
         <v>0.003214418031127184</v>
@@ -1674,7 +1674,7 @@
         <v>0.001091356325176873</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003587114771720529</v>
+        <v>0.0003587114771720528</v>
       </c>
       <c r="N8" t="n">
         <v>0.003003555521807944</v>
@@ -1692,7 +1692,7 @@
         <v>0.002411441482074766</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0007926024857269362</v>
+        <v>0.0007926024857269361</v>
       </c>
       <c r="T8" t="n">
         <v>0.002948257462599371</v>
@@ -1770,13 +1770,13 @@
         <v>0.0009014455486651756</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0002962908235304827</v>
+        <v>0.0002962908235304826</v>
       </c>
       <c r="AT8" t="n">
         <v>0.001229803849682622</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.000404216977878454</v>
+        <v>0.0004042169778784539</v>
       </c>
       <c r="AV8" t="n">
         <v>0.001095194421267836</v>
@@ -1819,7 +1819,7 @@
         <v>0.0007932016662355936</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002607127798930295</v>
+        <v>0.0002607127798930294</v>
       </c>
       <c r="L9" t="n">
         <v>0.001015104354858838</v>
@@ -1834,7 +1834,7 @@
         <v>0.000906448335118984</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003529323160956504</v>
+        <v>0.003529323160956505</v>
       </c>
       <c r="Q9" t="n">
         <v>0.001160032425046026</v>
@@ -1843,7 +1843,7 @@
         <v>0.002231329472212431</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0007334025309333682</v>
+        <v>0.0007334025309333681</v>
       </c>
       <c r="T9" t="n">
         <v>0.002754014821701338</v>
@@ -1879,7 +1879,7 @@
         <v>0.001329633176644227</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0004370292908814372</v>
+        <v>0.0004370292908814371</v>
       </c>
       <c r="AF9" t="n">
         <v>0.001701605638805426</v>
@@ -1924,10 +1924,10 @@
         <v>0.0002755892812750777</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001209461229612685</v>
+        <v>0.001209461229612684</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0003975306820037728</v>
+        <v>0.0003975306820037727</v>
       </c>
       <c r="AV9" t="n">
         <v>0.001073550262744756</v>
@@ -1946,7 +1946,7 @@
         <v>0.001091705146062563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003588261290527338</v>
+        <v>0.0003588261290527337</v>
       </c>
       <c r="D10" t="n">
         <v>0.001419266187326607</v>
@@ -1967,7 +1967,7 @@
         <v>0.0001465004100716304</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007319445078530428</v>
+        <v>0.0007319445078530427</v>
       </c>
       <c r="K10" t="n">
         <v>0.0002405785256042608</v>
@@ -1991,7 +1991,7 @@
         <v>0.001087416936780234</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002074651673094967</v>
+        <v>0.002074651673094966</v>
       </c>
       <c r="S10" t="n">
         <v>0.0006819050287290505</v>
@@ -2078,7 +2078,7 @@
         <v>0.001189118609542746</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0003908443861290916</v>
+        <v>0.0003908443861290915</v>
       </c>
       <c r="AV10" t="n">
         <v>0.001062728183483216</v>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001028451843608295</v>
+        <v>0.001028451843608294</v>
       </c>
       <c r="C11" t="n">
         <v>0.0003380357739359445</v>
@@ -2121,16 +2121,16 @@
         <v>0.0006895357058958923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002266394264812672</v>
+        <v>0.0002266394264812671</v>
       </c>
       <c r="L11" t="n">
         <v>0.0009054921475266629</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0002976208762562884</v>
+        <v>0.0002976208762562883</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002397383407406704</v>
+        <v>0.002397383407406705</v>
       </c>
       <c r="O11" t="n">
         <v>0.0007879818200341266</v>
@@ -2145,13 +2145,13 @@
         <v>0.001964842295467243</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0006458124317032345</v>
+        <v>0.0006458124317032344</v>
       </c>
       <c r="T11" t="n">
         <v>0.002479135487985674</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008148524294857356</v>
+        <v>0.0008148524294857355</v>
       </c>
       <c r="V11" t="n">
         <v>0.001024789142851264</v>
@@ -2187,7 +2187,7 @@
         <v>0.00151786418484991</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0004988978313804374</v>
+        <v>0.0004988978313804372</v>
       </c>
       <c r="AH11" t="n">
         <v>0.00268269513572953</v>
@@ -2214,7 +2214,7 @@
         <v>0.0002432512107471308</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0005695471574096705</v>
+        <v>0.0005695471574096704</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.0001872010977903627</v>
@@ -2269,16 +2269,16 @@
         <v>0.0001345162362928159</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006644045639953586</v>
+        <v>0.0006644045639953584</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002183792195935672</v>
+        <v>0.0002183792195935671</v>
       </c>
       <c r="L12" t="n">
         <v>0.0008737204932274818</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002871780384929099</v>
+        <v>0.0002871780384929098</v>
       </c>
       <c r="N12" t="n">
         <v>0.002310007246772292</v>
@@ -2338,7 +2338,7 @@
         <v>0.001464605792399036</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0004813926443144572</v>
+        <v>0.0004813926443144571</v>
       </c>
       <c r="AH12" t="n">
         <v>0.002604215206561853</v>
@@ -2380,7 +2380,7 @@
         <v>0.001152132027597404</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.0003786874845387621</v>
+        <v>0.000378687484538762</v>
       </c>
       <c r="AV12" t="n">
         <v>0.001073550262744756</v>
@@ -2426,7 +2426,7 @@
         <v>0.0002137328532192359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000849891752503096</v>
+        <v>0.0008498917525030959</v>
       </c>
       <c r="M13" t="n">
         <v>0.0002793459101703759</v>
@@ -2435,7 +2435,7 @@
         <v>0.002260858156415434</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0007431081400777412</v>
+        <v>0.0007431081400777413</v>
       </c>
       <c r="P13" t="n">
         <v>0.002954910627717887</v>
@@ -2450,10 +2450,10 @@
         <v>0.0006115064677606414</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002345513348858556</v>
+        <v>0.002345513348858555</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007709329562546532</v>
+        <v>0.0007709329562546529</v>
       </c>
       <c r="V13" t="n">
         <v>0.0009972236121100118</v>
@@ -2483,7 +2483,7 @@
         <v>0.001090035911149921</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0003582774780691386</v>
+        <v>0.0003582774780691385</v>
       </c>
       <c r="AF13" t="n">
         <v>0.001424661998060881</v>
@@ -2528,7 +2528,7 @@
         <v>0.0002307359397217004</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.001137337394819268</v>
+        <v>0.001137337394819267</v>
       </c>
       <c r="AU13" t="n">
         <v>0.0003738247239026304</v>
@@ -2550,13 +2550,13 @@
         <v>0.0009558276815311711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003141653662092605</v>
+        <v>0.0003141653662092604</v>
       </c>
       <c r="D14" t="n">
         <v>0.001241561739831623</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004080816094808697</v>
+        <v>0.0004080816094808696</v>
       </c>
       <c r="F14" t="n">
         <v>0.0003001759442278533</v>
@@ -2577,7 +2577,7 @@
         <v>0.0002106352756363485</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008324173426385462</v>
+        <v>0.0008324173426385461</v>
       </c>
       <c r="M14" t="n">
         <v>0.0002736023494005178</v>
@@ -2598,13 +2598,13 @@
         <v>0.001834262785168501</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0006028930222059982</v>
+        <v>0.0006028930222059981</v>
       </c>
       <c r="T14" t="n">
         <v>0.002302524799401402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0007568033033433913</v>
+        <v>0.0007568033033433912</v>
       </c>
       <c r="V14" t="n">
         <v>0.0009858730994518491</v>
@@ -2634,7 +2634,7 @@
         <v>0.001074238289249197</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0003530850508507453</v>
+        <v>0.0003530850508507452</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0013953698822129</v>
@@ -2679,10 +2679,10 @@
         <v>0.0002259918362881702</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.001124392091138398</v>
+        <v>0.001124392091138397</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.000369569808346015</v>
+        <v>0.0003695698083460149</v>
       </c>
       <c r="AV14" t="n">
         <v>0.001086536757858604</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0009441141070026031</v>
+        <v>0.000944114107002603</v>
       </c>
       <c r="C15" t="n">
         <v>0.0003103153004468921</v>
@@ -2707,7 +2707,7 @@
         <v>0.001220237206132225</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0004010725742035264</v>
+        <v>0.0004010725742035263</v>
       </c>
       <c r="F15" t="n">
         <v>0.0002964973174603551</v>
@@ -2737,7 +2737,7 @@
         <v>0.002200787045979275</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0007233637208969316</v>
+        <v>0.0007233637208969318</v>
       </c>
       <c r="P15" t="n">
         <v>0.002844446679018153</v>
@@ -2749,13 +2749,13 @@
         <v>0.001811962639402565</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0005955633187495634</v>
+        <v>0.0005955633187495633</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00226511955938263</v>
+        <v>0.002265119559382629</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0007445087954988205</v>
+        <v>0.0007445087954988204</v>
       </c>
       <c r="V15" t="n">
         <v>0.0009745225867936864</v>
@@ -2791,7 +2791,7 @@
         <v>0.001371403605610007</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004507585669489917</v>
+        <v>0.0004507585669489916</v>
       </c>
       <c r="AH15" t="n">
         <v>0.002476835259244857</v>
@@ -2824,7 +2824,7 @@
         <v>0.0001718497549191712</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.000675756124545219</v>
+        <v>0.0006757561245452189</v>
       </c>
       <c r="AS15" t="n">
         <v>0.0002221102971152817</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009347432473797483</v>
+        <v>0.0009347432473797482</v>
       </c>
       <c r="C16" t="n">
         <v>0.0003072352478369973</v>
@@ -2876,7 +2876,7 @@
         <v>0.000626707851144558</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002059889092620173</v>
+        <v>0.0002059889092620172</v>
       </c>
       <c r="L16" t="n">
         <v>0.0008070000191992012</v>
@@ -2888,7 +2888,7 @@
         <v>0.002178943005820672</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00071618393210391</v>
+        <v>0.0007161839321039101</v>
       </c>
       <c r="P16" t="n">
         <v>0.002805784296973246</v>
@@ -3009,7 +3009,7 @@
         <v>0.001189435101899761</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000390948412136253</v>
+        <v>0.0003909484121362529</v>
       </c>
       <c r="F17" t="n">
         <v>0.000290611514632358</v>
@@ -3027,10 +3027,10 @@
         <v>0.0006204250656694246</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002039238575400923</v>
+        <v>0.0002039238575400922</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000797468522909447</v>
+        <v>0.0007974685229094469</v>
       </c>
       <c r="M17" t="n">
         <v>0.0002621152278608013</v>
@@ -3045,7 +3045,7 @@
         <v>0.002772645112363326</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0009113243777356884</v>
+        <v>0.0009113243777356885</v>
       </c>
       <c r="R17" t="n">
         <v>0.001776361595800265</v>
@@ -3120,7 +3120,7 @@
         <v>0.0002323301259566891</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0005124627042752159</v>
+        <v>0.0005124627042752158</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.0001684383453922397</v>
@@ -3135,7 +3135,7 @@
         <v>0.00109110416738759</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0003586285969147186</v>
+        <v>0.0003586285969147185</v>
       </c>
       <c r="AV17" t="n">
         <v>0.001034590777403212</v>
@@ -3181,7 +3181,7 @@
         <v>0.0002018588058181673</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007927027747645698</v>
+        <v>0.0007927027747645697</v>
       </c>
       <c r="M18" t="n">
         <v>0.0002605488021962946</v>
@@ -3196,13 +3196,13 @@
         <v>0.002756075520058365</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.000905878216115754</v>
+        <v>0.0009058782161157541</v>
       </c>
       <c r="R18" t="n">
         <v>0.001758363099941123</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0005779460020836803</v>
+        <v>0.0005779460020836801</v>
       </c>
       <c r="T18" t="n">
         <v>0.002187551020638971</v>
@@ -3244,7 +3244,7 @@
         <v>0.001328796891649307</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0004367544172962075</v>
+        <v>0.0004367544172962074</v>
       </c>
       <c r="AH18" t="n">
         <v>0.002438101220772767</v>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009089733834168983</v>
+        <v>0.0009089733834168982</v>
       </c>
       <c r="C19" t="n">
         <v>0.0002987651031597869</v>
@@ -3326,13 +3326,13 @@
         <v>0.0001220429125638457</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006094301910879413</v>
+        <v>0.0006094301910879411</v>
       </c>
       <c r="K19" t="n">
         <v>0.0002003100170267236</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007927027747645698</v>
+        <v>0.0007927027747645697</v>
       </c>
       <c r="M19" t="n">
         <v>0.0002605488021962946</v>
@@ -3341,13 +3341,13 @@
         <v>0.002118871895384513</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0006964395129231005</v>
+        <v>0.0006964395129231006</v>
       </c>
       <c r="P19" t="n">
         <v>0.002756075520058365</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.000905878216115754</v>
+        <v>0.0009058782161157541</v>
       </c>
       <c r="R19" t="n">
         <v>0.001744270305872793</v>
@@ -3389,13 +3389,13 @@
         <v>0.001021579549580119</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0003357769601227676</v>
+        <v>0.0003357769601227675</v>
       </c>
       <c r="AF19" t="n">
         <v>0.001328796891649307</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0004367544172962075</v>
+        <v>0.0004367544172962074</v>
       </c>
       <c r="AH19" t="n">
         <v>0.002422469479716418</v>
@@ -3434,16 +3434,16 @@
         <v>0.0002152097830301468</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.001068912218220385</v>
+        <v>0.001068912218220384</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.0003513344559605209</v>
+        <v>0.0003513344559605208</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0009956312920616688</v>
+        <v>0.0009956312920616685</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0003272481803193651</v>
+        <v>0.000327248180319365</v>
       </c>
     </row>
     <row r="20">
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009019452386997573</v>
+        <v>0.0009019452386997571</v>
       </c>
       <c r="C20" t="n">
         <v>0.0002964550637023659</v>
@@ -3492,13 +3492,13 @@
         <v>0.002102488865265561</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0006910546713283343</v>
+        <v>0.0006910546713283344</v>
       </c>
       <c r="P20" t="n">
-        <v>0.002761598717493352</v>
+        <v>0.002761598717493353</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0009076936033223985</v>
+        <v>0.0009076936033223987</v>
       </c>
       <c r="R20" t="n">
         <v>0.001730573459920446</v>
@@ -3610,7 +3610,7 @@
         <v>0.0002949150373974185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001187065709266495</v>
+        <v>0.001187065709266494</v>
       </c>
       <c r="E21" t="n">
         <v>0.0003901696304387704</v>
@@ -3628,13 +3628,13 @@
         <v>0.0001225320625140014</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0006015767092440244</v>
+        <v>0.0006015767092440243</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001977287023743174</v>
+        <v>0.0001977287023743173</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000795879940194488</v>
+        <v>0.0007958799401944879</v>
       </c>
       <c r="M21" t="n">
         <v>0.0002615930859726325</v>
@@ -3643,7 +3643,7 @@
         <v>0.002091566845186259</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0006874647769318235</v>
+        <v>0.0006874647769318234</v>
       </c>
       <c r="P21" t="n">
         <v>0.002767121914928339</v>
@@ -3688,7 +3688,7 @@
         <v>9.605896403057772e-05</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.00100841486466285</v>
+        <v>0.001008414864662849</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0003314499374407731</v>
@@ -3730,7 +3730,7 @@
         <v>0.0001633212311018426</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.0006573860551401063</v>
+        <v>0.0006573860551401062</v>
       </c>
       <c r="AS21" t="n">
         <v>0.0002160723472907886</v>
@@ -3739,13 +3739,13 @@
         <v>0.001055966914539515</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.0003470795404039056</v>
+        <v>0.0003470795404039055</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0009913024603570527</v>
+        <v>0.0009913024603570525</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0003258253621440634</v>
+        <v>0.0003258253621440633</v>
       </c>
     </row>
     <row r="22">
@@ -3779,13 +3779,13 @@
         <v>0.0001220429125638457</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0006015767092440244</v>
+        <v>0.0006015767092440243</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001977287023743174</v>
+        <v>0.0001977287023743173</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007927027747645698</v>
+        <v>0.0007927027747645697</v>
       </c>
       <c r="M22" t="n">
         <v>0.0002605488021962946</v>
@@ -3794,13 +3794,13 @@
         <v>0.002091566845186259</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0006874647769318235</v>
+        <v>0.0006874647769318234</v>
       </c>
       <c r="P22" t="n">
         <v>0.002756075520058365</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000905878216115754</v>
+        <v>0.0009058782161157541</v>
       </c>
       <c r="R22" t="n">
         <v>0.00172236610822284</v>
@@ -3839,7 +3839,7 @@
         <v>9.79465855944974e-05</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.00100841486466285</v>
+        <v>0.001008414864662849</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0003314499374407731</v>
@@ -3848,7 +3848,7 @@
         <v>0.001328796891649307</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0004367544172962075</v>
+        <v>0.0004367544172962074</v>
       </c>
       <c r="AH22" t="n">
         <v>0.002407486297039323</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0009019452386997573</v>
+        <v>0.0009019452386997571</v>
       </c>
       <c r="C23" t="n">
         <v>0.0002964550637023659</v>
@@ -3936,7 +3936,7 @@
         <v>0.0001987612282352798</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007863484439047336</v>
+        <v>0.0007863484439047335</v>
       </c>
       <c r="M23" t="n">
         <v>0.0002584602346436188</v>
@@ -3945,13 +3945,13 @@
         <v>0.002102488865265561</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0006910546713283343</v>
+        <v>0.0006910546713283344</v>
       </c>
       <c r="P23" t="n">
         <v>0.002733982730318419</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0008986166672891747</v>
+        <v>0.0008986166672891748</v>
       </c>
       <c r="R23" t="n">
         <v>0.001733345096732323</v>
@@ -3963,7 +3963,7 @@
         <v>0.002180091676493096</v>
       </c>
       <c r="U23" t="n">
-        <v>0.000716561481896021</v>
+        <v>0.0007165614818960209</v>
       </c>
       <c r="V23" t="n">
         <v>0.000940471048819198</v>
@@ -3996,13 +3996,13 @@
         <v>0.0003331807465135709</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.001318145213159133</v>
+        <v>0.001318145213159132</v>
       </c>
       <c r="AG23" t="n">
         <v>0.0004332533798830114</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.002446579982930057</v>
+        <v>0.002446579982930056</v>
       </c>
       <c r="AI23" t="n">
         <v>0.0008041519524378841</v>
@@ -4047,7 +4047,7 @@
         <v>0.001049741688369368</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0003450334075106349</v>
+        <v>0.0003450334075106348</v>
       </c>
     </row>
     <row r="24">
@@ -4108,10 +4108,10 @@
         <v>0.001761926632984965</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0005791172787534707</v>
+        <v>0.0005791172787534706</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002168439250932923</v>
+        <v>0.002168439250932922</v>
       </c>
       <c r="U24" t="n">
         <v>0.0007127315148276121</v>
@@ -4192,7 +4192,7 @@
         <v>0.001096652154679391</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.000360452132153268</v>
+        <v>0.0003604521321532679</v>
       </c>
       <c r="AV24" t="n">
         <v>0.001106016500529376</v>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0009441141070026031</v>
+        <v>0.000944114107002603</v>
       </c>
       <c r="C25" t="n">
         <v>0.0003103153004468921</v>
@@ -4238,7 +4238,7 @@
         <v>0.0002080539609839423</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000768874034040184</v>
+        <v>0.0007688740340401839</v>
       </c>
       <c r="M25" t="n">
         <v>0.0002527166738737607</v>
@@ -4247,7 +4247,7 @@
         <v>0.002200787045979275</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0007233637208969316</v>
+        <v>0.0007233637208969318</v>
       </c>
       <c r="P25" t="n">
         <v>0.002673227558533565</v>
@@ -4262,7 +4262,7 @@
         <v>0.0005972551628281496</v>
       </c>
       <c r="T25" t="n">
-        <v>0.00216583450620031</v>
+        <v>0.002165834506200309</v>
       </c>
       <c r="U25" t="n">
         <v>0.0007118753766359537</v>
@@ -4334,7 +4334,7 @@
         <v>0.0001718497549191712</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.0006350795422910407</v>
+        <v>0.0006350795422910406</v>
       </c>
       <c r="AS25" t="n">
         <v>0.0002087405510753327</v>
@@ -4343,7 +4343,7 @@
         <v>0.001135488065722</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.0003732168788231139</v>
+        <v>0.0003732168788231138</v>
       </c>
       <c r="AV25" t="n">
         <v>0.001186099887064771</v>
@@ -4362,7 +4362,7 @@
         <v>0.0009933111200225897</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003264855766488393</v>
+        <v>0.0003264855766488392</v>
       </c>
       <c r="D26" t="n">
         <v>0.001144416641867698</v>
@@ -4389,7 +4389,7 @@
         <v>0.0002188954825240484</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007672854513252248</v>
+        <v>0.0007672854513252247</v>
       </c>
       <c r="M26" t="n">
         <v>0.0002521945319855917</v>
@@ -4410,13 +4410,13 @@
         <v>0.001910612197880873</v>
       </c>
       <c r="S26" t="n">
-        <v>0.000627987860604296</v>
+        <v>0.0006279878606042959</v>
       </c>
       <c r="T26" t="n">
-        <v>0.002184127976513034</v>
+        <v>0.002184127976513033</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0007178881495563076</v>
+        <v>0.0007178881495563075</v>
       </c>
       <c r="V26" t="n">
         <v>0.001042625662742663</v>
@@ -4446,7 +4446,7 @@
         <v>0.00111636528098446</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0003669315234331274</v>
+        <v>0.0003669315234331273</v>
       </c>
       <c r="AF26" t="n">
         <v>0.001286190177688608</v>
@@ -4479,13 +4479,13 @@
         <v>0.000277579791099286</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.0005500865483865609</v>
+        <v>0.0005500865483865607</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.0001808047049273662</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.0006337673944763897</v>
+        <v>0.0006337673944763896</v>
       </c>
       <c r="AS26" t="n">
         <v>0.0002083092689450118</v>
@@ -4494,13 +4494,13 @@
         <v>0.001189118609542746</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.0003908443861290916</v>
+        <v>0.0003908443861290915</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.001289991847975554</v>
+        <v>0.001289991847975553</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.000423999816239873</v>
+        <v>0.0004239998162398729</v>
       </c>
     </row>
     <row r="27">
@@ -4540,7 +4540,7 @@
         <v>0.0002354158962994483</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0007736397821850612</v>
+        <v>0.000773639782185061</v>
       </c>
       <c r="M27" t="n">
         <v>0.0002542830995382674</v>
@@ -4555,7 +4555,7 @@
         <v>0.002689797150838526</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0008840935696360166</v>
+        <v>0.0008840935696360165</v>
       </c>
       <c r="R27" t="n">
         <v>0.002051036631710164</v>
@@ -4567,7 +4567,7 @@
         <v>0.002228660067967769</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0007325251401878507</v>
+        <v>0.0007325251401878506</v>
       </c>
       <c r="V27" t="n">
         <v>0.001105864233266712</v>
@@ -4597,7 +4597,7 @@
         <v>0.001200619264454985</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0003946244685978918</v>
+        <v>0.0003946244685978917</v>
       </c>
       <c r="AF27" t="n">
         <v>0.001296841856178783</v>
@@ -4636,16 +4636,16 @@
         <v>0.000194450343035092</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.0006390159857349935</v>
+        <v>0.0006390159857349934</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.0002100343974662956</v>
+        <v>0.0002100343974662955</v>
       </c>
       <c r="AT27" t="n">
         <v>0.001261242444336163</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.000414550344230234</v>
+        <v>0.0004145503442302339</v>
       </c>
       <c r="AV27" t="n">
         <v>0.001424185630818648</v>
@@ -4685,7 +4685,7 @@
         <v>0.0001217983375887678</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0007837774880228935</v>
+        <v>0.0007837774880228934</v>
       </c>
       <c r="K28" t="n">
         <v>0.0002576152023101419</v>
@@ -4745,10 +4745,10 @@
         <v>0.0001575115327226286</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.001313835554743504</v>
+        <v>0.001313835554743503</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0004318368636630439</v>
+        <v>0.0004318368636630438</v>
       </c>
       <c r="AF28" t="n">
         <v>0.001326133972026764</v>
@@ -4799,10 +4799,10 @@
         <v>0.0004540602743988047</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.00162547630508329</v>
+        <v>0.001625476305083289</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0005342682248257459</v>
+        <v>0.0005342682248257458</v>
       </c>
     </row>
     <row r="29">
@@ -4842,7 +4842,7 @@
         <v>0.0002854934005561292</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0008244744290637511</v>
+        <v>0.0008244744290637508</v>
       </c>
       <c r="M29" t="n">
         <v>0.0002709916399596731</v>
@@ -4851,19 +4851,19 @@
         <v>0.003019938551926896</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0009926058006352436</v>
+        <v>0.0009926058006352438</v>
       </c>
       <c r="P29" t="n">
         <v>0.0028665394687581</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0009421859602486499</v>
+        <v>0.0009421859602486498</v>
       </c>
       <c r="R29" t="n">
         <v>0.002497596833251896</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0008209203802349618</v>
+        <v>0.0008209203802349617</v>
       </c>
       <c r="T29" t="n">
         <v>0.002463040142827775</v>
@@ -4932,7 +4932,7 @@
         <v>0.000397775279905232</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.0007174477859853023</v>
+        <v>0.0007174477859853022</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.0002358136835491356</v>
@@ -4941,19 +4941,19 @@
         <v>0.0006810047158038225</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0002238354256365655</v>
+        <v>0.0002238354256365654</v>
       </c>
       <c r="AT29" t="n">
         <v>0.001577477719968837</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.0005184918528275507</v>
+        <v>0.0005184918528275506</v>
       </c>
       <c r="AV29" t="n">
         <v>0.001928494524406406</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.000633865497096857</v>
+        <v>0.0006338654970968569</v>
       </c>
     </row>
     <row r="30">
@@ -4963,10 +4963,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001443112381919612</v>
+        <v>0.001443112381919611</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004743281019237855</v>
+        <v>0.0004743281019237854</v>
       </c>
       <c r="D30" t="n">
         <v>0.001300796555663284</v>
@@ -5014,7 +5014,7 @@
         <v>0.002808195588978171</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0009230092543305208</v>
+        <v>0.0009230092543305206</v>
       </c>
       <c r="T30" t="n">
         <v>0.002677471218667217</v>
@@ -5050,7 +5050,7 @@
         <v>0.001621889181807612</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0005330891944217135</v>
+        <v>0.0005330891944217134</v>
       </c>
       <c r="AF30" t="n">
         <v>0.001461942872776492</v>
@@ -5098,13 +5098,13 @@
         <v>0.001878918362823375</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.0006175706007887357</v>
+        <v>0.0006175706007887356</v>
       </c>
       <c r="AV30" t="n">
         <v>0.002376528605834157</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.0007811271782405712</v>
+        <v>0.0007811271782405711</v>
       </c>
     </row>
     <row r="31">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001614130570036709</v>
+        <v>0.001614130570036708</v>
       </c>
       <c r="C31" t="n">
         <v>0.0005305390620543639</v>
@@ -5144,13 +5144,13 @@
         <v>0.0003557051591015788</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0009404409672557622</v>
+        <v>0.0009404409672557621</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0003091079977960048</v>
+        <v>0.0003091079977960047</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003762635917319406</v>
+        <v>0.003762635917319407</v>
       </c>
       <c r="O31" t="n">
         <v>0.00123671861959798</v>
@@ -5168,7 +5168,7 @@
         <v>0.00104704547906209</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002977083491369693</v>
+        <v>0.002977083491369692</v>
       </c>
       <c r="U31" t="n">
         <v>0.0009785200234036133</v>
@@ -5243,16 +5243,16 @@
         <v>0.000776791506273339</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0002553190211499938</v>
+        <v>0.0002553190211499937</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.00230981204248661</v>
+        <v>0.002309812042486609</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.0007591985043160738</v>
+        <v>0.0007591985043160737</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.002982565044480391</v>
+        <v>0.00298256504448039</v>
       </c>
       <c r="AW31" t="n">
         <v>0.0009803217227827936</v>
@@ -5274,7 +5274,7 @@
         <v>0.00153773581898993</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0005054293216661916</v>
+        <v>0.0005054293216661915</v>
       </c>
       <c r="F32" t="n">
         <v>0.0005672442475482228</v>
@@ -5349,16 +5349,16 @@
         <v>0.0003548728540168942</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.002029994414242969</v>
+        <v>0.002029994414242968</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0006672268975635407</v>
+        <v>0.0006672268975635406</v>
       </c>
       <c r="AF32" t="n">
         <v>0.001728234835030863</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0005680433202910595</v>
+        <v>0.0005680433202910594</v>
       </c>
       <c r="AH32" t="n">
         <v>0.003947830244896925</v>
@@ -5400,13 +5400,13 @@
         <v>0.002836870835207734</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.0009324343519782685</v>
+        <v>0.0009324343519782683</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.003662191622105095</v>
+        <v>0.003662191622105094</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.001203704176305143</v>
+        <v>0.001203704176305142</v>
       </c>
     </row>
     <row r="33">
@@ -5443,7 +5443,7 @@
         <v>0.001352369573522467</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004445023831443531</v>
+        <v>0.000444502383144353</v>
       </c>
       <c r="L33" t="n">
         <v>0.001148545302915399</v>
@@ -5509,7 +5509,7 @@
         <v>0.001925290887099097</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0006328125124351864</v>
+        <v>0.0006328125124351863</v>
       </c>
       <c r="AH33" t="n">
         <v>0.004314485179236842</v>
@@ -5554,7 +5554,7 @@
         <v>0.001126336932344023</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.004305023130240564</v>
+        <v>0.004305023130240563</v>
       </c>
       <c r="AW33" t="n">
         <v>0.001414992675337428</v>
@@ -5612,10 +5612,10 @@
         <v>0.004506929106949151</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001481355960622154</v>
+        <v>0.001481355960622155</v>
       </c>
       <c r="R34" t="n">
-        <v>0.004602903247228424</v>
+        <v>0.004602903247228423</v>
       </c>
       <c r="S34" t="n">
         <v>0.001512901135040158</v>
@@ -5654,7 +5654,7 @@
         <v>0.002519720693165397</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0008281921413337334</v>
+        <v>0.0008281921413337333</v>
       </c>
       <c r="AF34" t="n">
         <v>0.002172942411995661</v>
@@ -5699,16 +5699,16 @@
         <v>0.0003519262183418832</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.004040784077528617</v>
+        <v>0.004040784077528616</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.001328141498743492</v>
+        <v>0.001328141498743491</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.004805003192123706</v>
+        <v>0.004805003192123705</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.001579328174584762</v>
+        <v>0.001579328174584761</v>
       </c>
     </row>
     <row r="35">
@@ -5745,7 +5745,7 @@
         <v>0.001661796758172788</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0005462061804491587</v>
+        <v>0.0005462061804491586</v>
       </c>
       <c r="L35" t="n">
         <v>0.001475793342196965</v>
@@ -5805,10 +5805,10 @@
         <v>0.002785647328494242</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0009155979995100208</v>
+        <v>0.0009155979995100207</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0024738523293431</v>
+        <v>0.002473852329343099</v>
       </c>
       <c r="AG35" t="n">
         <v>0.0008131159392147831</v>
@@ -5847,16 +5847,16 @@
         <v>0.001218985319810696</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.000400661099068149</v>
+        <v>0.0004006610990681489</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.004630720059556823</v>
+        <v>0.004630720059556822</v>
       </c>
       <c r="AU35" t="n">
         <v>0.001522044079109246</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.005071226341957588</v>
+        <v>0.005071226341957587</v>
       </c>
       <c r="AW35" t="n">
         <v>0.001666831492365809</v>
@@ -5905,13 +5905,13 @@
         <v>0.000551381833906387</v>
       </c>
       <c r="N36" t="n">
-        <v>0.006323849625915634</v>
+        <v>0.006323849625915635</v>
       </c>
       <c r="O36" t="n">
         <v>0.002078548855579769</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00583249649134596</v>
+        <v>0.005832496491345961</v>
       </c>
       <c r="Q36" t="n">
         <v>0.001917048890216906</v>
@@ -5923,7 +5923,7 @@
         <v>0.001846936138464235</v>
       </c>
       <c r="T36" t="n">
-        <v>0.005265960908951449</v>
+        <v>0.005265960908951448</v>
       </c>
       <c r="U36" t="n">
         <v>0.00173083764926558</v>
@@ -5959,10 +5959,10 @@
         <v>0.001002138453149909</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.00281204312140615</v>
+        <v>0.002812043121406149</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0009242738770837577</v>
+        <v>0.0009242738770837576</v>
       </c>
       <c r="AH36" t="n">
         <v>0.005699951010498976</v>
@@ -6007,7 +6007,7 @@
         <v>0.001683123025181111</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.005112350243151438</v>
+        <v>0.005112350243151437</v>
       </c>
       <c r="AW36" t="n">
         <v>0.001680348265031174</v>
@@ -6023,7 +6023,7 @@
         <v>0.002926050917236355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0009617464274396234</v>
+        <v>0.0009617464274396233</v>
       </c>
       <c r="D37" t="n">
         <v>0.002819577233587083</v>
@@ -6056,7 +6056,7 @@
         <v>0.0006213488469210231</v>
       </c>
       <c r="N37" t="n">
-        <v>0.006820801539523858</v>
+        <v>0.006820801539523859</v>
       </c>
       <c r="O37" t="n">
         <v>0.002241889050621012</v>
@@ -6074,10 +6074,10 @@
         <v>0.001985360216866227</v>
       </c>
       <c r="T37" t="n">
-        <v>0.005761919298100826</v>
+        <v>0.005761919298100825</v>
       </c>
       <c r="U37" t="n">
-        <v>0.001893851288609094</v>
+        <v>0.001893851288609093</v>
       </c>
       <c r="V37" t="n">
         <v>0.004759107807386804</v>
@@ -6140,7 +6140,7 @@
         <v>0.001010153628552188</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.001620420044657582</v>
+        <v>0.001620420044657581</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.0005326063123921708</v>
@@ -6155,10 +6155,10 @@
         <v>0.005427780900478942</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.001784025308380846</v>
+        <v>0.001784025308380845</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.004956512301785265</v>
+        <v>0.004956512301785264</v>
       </c>
       <c r="AW37" t="n">
         <v>0.001629126810720317</v>
@@ -6201,7 +6201,7 @@
         <v>0.0006830158570266889</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002101694931890834</v>
+        <v>0.002101694931890833</v>
       </c>
       <c r="M38" t="n">
         <v>0.0006907937180474905</v>
@@ -6216,10 +6216,10 @@
         <v>0.007307190206487412</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.002401757274391068</v>
+        <v>0.002401757274391067</v>
       </c>
       <c r="R38" t="n">
-        <v>0.006337666100087966</v>
+        <v>0.006337666100087965</v>
       </c>
       <c r="S38" t="n">
         <v>0.002083090111029829</v>
@@ -6258,10 +6258,10 @@
         <v>0.00348337562910953</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.001144930201655726</v>
+        <v>0.001144930201655725</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.003523042660625319</v>
+        <v>0.003523042660625318</v>
       </c>
       <c r="AG38" t="n">
         <v>0.001157968124414594</v>
@@ -6303,13 +6303,13 @@
         <v>0.0005705862584145975</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.005466616811521553</v>
+        <v>0.005466616811521551</v>
       </c>
       <c r="AU38" t="n">
         <v>0.001796790055050692</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.004627521092234453</v>
+        <v>0.004627521092234452</v>
       </c>
       <c r="AW38" t="n">
         <v>0.001520992629397396</v>
@@ -6358,16 +6358,16 @@
         <v>0.0007560614540686064</v>
       </c>
       <c r="N39" t="n">
-        <v>0.00751434981455951</v>
+        <v>0.007514349814559509</v>
       </c>
       <c r="O39" t="n">
         <v>0.002469847344799449</v>
       </c>
       <c r="P39" t="n">
-        <v>0.00799758988586075</v>
+        <v>0.007997589885860749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002628680675221667</v>
+        <v>0.002628680675221668</v>
       </c>
       <c r="R39" t="n">
         <v>0.006484880129487642</v>
@@ -6412,7 +6412,7 @@
         <v>0.001190796642084866</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.003855907613443282</v>
+        <v>0.003855907613443281</v>
       </c>
       <c r="AG39" t="n">
         <v>0.001267375543576971</v>
@@ -6445,7 +6445,7 @@
         <v>0.001785186534386575</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.0005867624386322073</v>
+        <v>0.0005867624386322072</v>
       </c>
       <c r="AR39" t="n">
         <v>0.001899990035614519</v>
@@ -6454,13 +6454,13 @@
         <v>0.0006244965247047146</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.00518736811783422</v>
+        <v>0.005187368117834219</v>
       </c>
       <c r="AU39" t="n">
         <v>0.001705005448043704</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.004166500515692853</v>
+        <v>0.004166500515692852</v>
       </c>
       <c r="AW39" t="n">
         <v>0.001369462493727778</v>
@@ -6515,7 +6515,7 @@
         <v>0.002532670496738389</v>
       </c>
       <c r="P40" t="n">
-        <v>0.008627234393449233</v>
+        <v>0.008627234393449234</v>
       </c>
       <c r="Q40" t="n">
         <v>0.002835634816779174</v>
@@ -6524,13 +6524,13 @@
         <v>0.006512298012154904</v>
       </c>
       <c r="S40" t="n">
-        <v>0.002140488844783225</v>
+        <v>0.002140488844783224</v>
       </c>
       <c r="T40" t="n">
         <v>0.006950096070899138</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002284386107970617</v>
+        <v>0.002284386107970616</v>
       </c>
       <c r="V40" t="n">
         <v>0.004100778073213366</v>
@@ -6563,7 +6563,7 @@
         <v>0.001221085800858827</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.004159480450413263</v>
+        <v>0.004159480450413262</v>
       </c>
       <c r="AG40" t="n">
         <v>0.001367155109853058</v>
@@ -6605,13 +6605,13 @@
         <v>0.0006736626875613011</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.0046769532869885</v>
+        <v>0.004676953286988499</v>
       </c>
       <c r="AU40" t="n">
         <v>0.001537240206097158</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.003642711879434324</v>
+        <v>0.003642711879434323</v>
       </c>
       <c r="AW40" t="n">
         <v>0.001197301494516286</v>
@@ -6657,7 +6657,7 @@
         <v>0.002637047306832036</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000866755534360419</v>
+        <v>0.0008667555343604188</v>
       </c>
       <c r="N41" t="n">
         <v>0.007825627386819608</v>
@@ -6672,13 +6672,13 @@
         <v>0.003013542763030365</v>
       </c>
       <c r="R41" t="n">
-        <v>0.006464788936466689</v>
+        <v>0.006464788936466688</v>
       </c>
       <c r="S41" t="n">
         <v>0.002124873366752768</v>
       </c>
       <c r="T41" t="n">
-        <v>0.007228775736134756</v>
+        <v>0.007228775736134755</v>
       </c>
       <c r="U41" t="n">
         <v>0.00237598368437013</v>
@@ -6714,7 +6714,7 @@
         <v>0.001240124700659603</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.004420446573422546</v>
+        <v>0.004420446573422545</v>
       </c>
       <c r="AG41" t="n">
         <v>0.001452930526476362</v>
@@ -6756,7 +6756,7 @@
         <v>0.0007159283363327529</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.004053729381209487</v>
+        <v>0.004053729381209486</v>
       </c>
       <c r="AU41" t="n">
         <v>0.001332396414300107</v>
@@ -6799,16 +6799,16 @@
         <v>0.0004255604566354539</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002274368341998297</v>
+        <v>0.002274368341998296</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0007475487233368449</v>
+        <v>0.0007475487233368446</v>
       </c>
       <c r="L42" t="n">
         <v>0.00276413392402876</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0009085268854139331</v>
+        <v>0.0009085268854139329</v>
       </c>
       <c r="N42" t="n">
         <v>0.00790754253741437</v>
@@ -6820,10 +6820,10 @@
         <v>0.009610363536876868</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.003158773739561947</v>
+        <v>0.003158773739561948</v>
       </c>
       <c r="R42" t="n">
-        <v>0.006391127792590737</v>
+        <v>0.006391127792590736</v>
       </c>
       <c r="S42" t="n">
         <v>0.002100662119591449</v>
@@ -6865,10 +6865,10 @@
         <v>0.001253105768705586</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.004633480143226043</v>
+        <v>0.004633480143226041</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.001522951274740283</v>
+        <v>0.001522951274740282</v>
       </c>
       <c r="AH42" t="n">
         <v>0.007426763153875737</v>
@@ -6898,16 +6898,16 @@
         <v>0.001878597457697501</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.0006174651243745904</v>
+        <v>0.0006174651243745903</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.002283137197492585</v>
+        <v>0.002283137197492584</v>
       </c>
       <c r="AS42" t="n">
         <v>0.0007504309067584275</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.003436053462722275</v>
+        <v>0.003436053462722274</v>
       </c>
       <c r="AU42" t="n">
         <v>0.001129376157741605</v>
@@ -6916,7 +6916,7 @@
         <v>0.002731492805612665</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.0008977982686153013</v>
+        <v>0.0008977982686153012</v>
       </c>
     </row>
     <row r="43">
@@ -6932,7 +6932,7 @@
         <v>0.001124219202611569</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004264906739879622</v>
+        <v>0.004264906739879621</v>
       </c>
       <c r="E43" t="n">
         <v>0.001401807055468636</v>
@@ -6953,16 +6953,16 @@
         <v>0.002293216698423696</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0007537438785026197</v>
+        <v>0.0007537438785026196</v>
       </c>
       <c r="L43" t="n">
         <v>0.002859448886926304</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0009398553987040687</v>
+        <v>0.0009398553987040685</v>
       </c>
       <c r="N43" t="n">
-        <v>0.007973074657890176</v>
+        <v>0.007973074657890178</v>
       </c>
       <c r="O43" t="n">
         <v>0.002620622909452904</v>
@@ -6974,13 +6974,13 @@
         <v>0.003267696971960636</v>
       </c>
       <c r="R43" t="n">
-        <v>0.006327922637837363</v>
+        <v>0.006327922637837362</v>
       </c>
       <c r="S43" t="n">
         <v>0.002079887589858645</v>
       </c>
       <c r="T43" t="n">
-        <v>0.007642314454548073</v>
+        <v>0.007642314454548072</v>
       </c>
       <c r="U43" t="n">
         <v>0.002511907287988625</v>
@@ -7019,7 +7019,7 @@
         <v>0.004793255320578664</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.001575466835938224</v>
+        <v>0.001575466835938223</v>
       </c>
       <c r="AH43" t="n">
         <v>0.007575657611001008</v>
@@ -7055,19 +7055,19 @@
         <v>0.002361866066371639</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.0007763078345776838</v>
+        <v>0.0007763078345776837</v>
       </c>
       <c r="AT43" t="n">
         <v>0.00292193997368202</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.000960395225636026</v>
+        <v>0.0009603952256360259</v>
       </c>
       <c r="AV43" t="n">
         <v>0.002484749398449556</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.0008166976326231109</v>
+        <v>0.0008166976326231108</v>
       </c>
     </row>
     <row r="44">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.003448476341210501</v>
+        <v>0.0034484763412105</v>
       </c>
       <c r="C44" t="n">
         <v>0.001133459360441254</v>
@@ -7101,22 +7101,22 @@
         <v>0.0004514854039937056</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002312065054849097</v>
+        <v>0.002312065054849096</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0007599390336683947</v>
+        <v>0.0007599390336683945</v>
       </c>
       <c r="L44" t="n">
         <v>0.00293252369181442</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0009638739255598392</v>
+        <v>0.0009638739255598391</v>
       </c>
       <c r="N44" t="n">
         <v>0.008038606778365988</v>
       </c>
       <c r="O44" t="n">
-        <v>0.00264216227583197</v>
+        <v>0.002642162275831969</v>
       </c>
       <c r="P44" t="n">
         <v>0.01019582246498546</v>
@@ -7125,13 +7125,13 @@
         <v>0.003351204783466296</v>
       </c>
       <c r="R44" t="n">
-        <v>0.006292829799318742</v>
+        <v>0.006292829799318741</v>
       </c>
       <c r="S44" t="n">
         <v>0.002068353131631966</v>
       </c>
       <c r="T44" t="n">
-        <v>0.007801315588160636</v>
+        <v>0.007801315588160635</v>
       </c>
       <c r="U44" t="n">
         <v>0.002564168433312496</v>
@@ -7164,7 +7164,7 @@
         <v>0.003875683239644163</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.00127387547757916</v>
+        <v>0.001273875477579159</v>
       </c>
       <c r="AF44" t="n">
         <v>0.004915749623215674</v>
@@ -7200,7 +7200,7 @@
         <v>0.001909734432134476</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.0006276993529553847</v>
+        <v>0.0006276993529553845</v>
       </c>
       <c r="AR44" t="n">
         <v>0.002422224865845581</v>
@@ -7209,16 +7209,16 @@
         <v>0.0007961468125724468</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.002539128850547731</v>
+        <v>0.00253912885054773</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.0008345712941761163</v>
+        <v>0.0008345712941761162</v>
       </c>
       <c r="AV44" t="n">
         <v>0.002378693021686465</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.0007818385873282222</v>
+        <v>0.0007818385873282221</v>
       </c>
     </row>
     <row r="45">
@@ -7264,7 +7264,7 @@
         <v>0.0009852817429747652</v>
       </c>
       <c r="N45" t="n">
-        <v>0.008104138898841798</v>
+        <v>0.0081041388988418</v>
       </c>
       <c r="O45" t="n">
         <v>0.002663701642211034</v>
@@ -7282,7 +7282,7 @@
         <v>0.002066319028615809</v>
       </c>
       <c r="T45" t="n">
-        <v>0.007961882661112833</v>
+        <v>0.007961882661112831</v>
       </c>
       <c r="U45" t="n">
         <v>0.002616944278006977</v>
@@ -7354,22 +7354,22 @@
         <v>0.0006328164672457818</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.002476022926246269</v>
+        <v>0.002476022926246268</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.000813829379915605</v>
+        <v>0.0008138293799156049</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.002291318751513939</v>
+        <v>0.002291318751513938</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.000753120053520909</v>
+        <v>0.0007531200535209089</v>
       </c>
       <c r="AV45" t="n">
         <v>0.002372199774129541</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.0007797043600652697</v>
+        <v>0.0007797043600652696</v>
       </c>
     </row>
     <row r="46">
@@ -7418,7 +7418,7 @@
         <v>0.008180593039396911</v>
       </c>
       <c r="O46" t="n">
-        <v>0.00268883090298661</v>
+        <v>0.002688830902986611</v>
       </c>
       <c r="P46" t="n">
         <v>0.01066529424695933</v>
@@ -7514,13 +7514,13 @@
         <v>0.00218220833477518</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.0007172571938294371</v>
+        <v>0.000717257193829437</v>
       </c>
       <c r="AV46" t="n">
         <v>0.002428474586289549</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.0007982009963441903</v>
+        <v>0.0007982009963441902</v>
       </c>
     </row>
     <row r="47">
@@ -7554,7 +7554,7 @@
         <v>0.0004849921755793707</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002379604998706781</v>
+        <v>0.00237960499870678</v>
       </c>
       <c r="K47" t="n">
         <v>0.0007821383396790881</v>
@@ -7614,7 +7614,7 @@
         <v>0.000243083710286986</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.003988899529932682</v>
+        <v>0.003988899529932681</v>
       </c>
       <c r="AE47" t="n">
         <v>0.001311087872644311</v>
@@ -7656,7 +7656,7 @@
         <v>0.0006460356791626409</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.002601989116452756</v>
+        <v>0.002601989116452755</v>
       </c>
       <c r="AS47" t="n">
         <v>0.0008552324644264149</v>
@@ -7665,13 +7665,13 @@
         <v>0.002204400283942385</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.0007245513347836349</v>
+        <v>0.0007245513347836348</v>
       </c>
       <c r="AV47" t="n">
         <v>0.002508557972824944</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.0008245231325872697</v>
+        <v>0.0008245231325872696</v>
       </c>
     </row>
     <row r="48">
@@ -7705,19 +7705,19 @@
         <v>0.0004981992242335745</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002411018926082448</v>
+        <v>0.002411018926082447</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000792463598288713</v>
+        <v>0.0007924635982887129</v>
       </c>
       <c r="L48" t="n">
-        <v>0.003235942990371601</v>
+        <v>0.0032359429903716</v>
       </c>
       <c r="M48" t="n">
         <v>0.001063603026200104</v>
       </c>
       <c r="N48" t="n">
-        <v>0.008382650410863987</v>
+        <v>0.008382650410863989</v>
       </c>
       <c r="O48" t="n">
         <v>0.00275524394932206</v>
@@ -7732,10 +7732,10 @@
         <v>0.006488207653294133</v>
       </c>
       <c r="S48" t="n">
-        <v>0.002132570726737634</v>
+        <v>0.002132570726737633</v>
       </c>
       <c r="T48" t="n">
-        <v>0.008599360078113653</v>
+        <v>0.008599360078113651</v>
       </c>
       <c r="U48" t="n">
         <v>0.002826472972385625</v>
@@ -7771,7 +7771,7 @@
         <v>0.001328395963372289</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.005424367271121521</v>
+        <v>0.00542436727112152</v>
       </c>
       <c r="AG48" t="n">
         <v>0.001782903302670089</v>
@@ -7804,7 +7804,7 @@
         <v>0.001991468990031535</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.0006545642029799697</v>
+        <v>0.0006545642029799696</v>
       </c>
       <c r="AR48" t="n">
         <v>0.002672845098443905</v>
@@ -7816,13 +7816,13 @@
         <v>0.002302414726097541</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0007567671239980079</v>
+        <v>0.0007567671239980078</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.002582148111803415</v>
+        <v>0.002582148111803414</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.0008487110415673965</v>
+        <v>0.0008487110415673964</v>
       </c>
     </row>
     <row r="49">
@@ -7856,13 +7856,13 @@
         <v>0.0005104279729874668</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002450286335302032</v>
+        <v>0.002450286335302031</v>
       </c>
       <c r="K49" t="n">
         <v>0.0008053701715507442</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003315372126119554</v>
+        <v>0.003315372126119553</v>
       </c>
       <c r="M49" t="n">
         <v>0.001089710120608551</v>
@@ -7871,7 +7871,7 @@
         <v>0.008519175661855258</v>
       </c>
       <c r="O49" t="n">
-        <v>0.002800117629278446</v>
+        <v>0.002800117629278445</v>
       </c>
       <c r="P49" t="n">
         <v>0.01152691304681725</v>
@@ -7880,16 +7880,16 @@
         <v>0.003788713100267693</v>
       </c>
       <c r="R49" t="n">
-        <v>0.006607627344443459</v>
+        <v>0.006607627344443458</v>
       </c>
       <c r="S49" t="n">
-        <v>0.002171822081063787</v>
+        <v>0.002171822081063786</v>
       </c>
       <c r="T49" t="n">
         <v>0.008805673759229115</v>
       </c>
       <c r="U49" t="n">
-        <v>0.002894285000049219</v>
+        <v>0.002894285000049218</v>
       </c>
       <c r="V49" t="n">
         <v>0.002107952350801651</v>
@@ -7922,7 +7922,7 @@
         <v>0.001350031076782261</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.005557513252248706</v>
+        <v>0.005557513252248705</v>
       </c>
       <c r="AG49" t="n">
         <v>0.00182666627033504</v>
@@ -7967,13 +7967,13 @@
         <v>0.002404127826447232</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.0007901986033714138</v>
+        <v>0.0007901986033714137</v>
       </c>
       <c r="AV49" t="n">
         <v>0.002623272012997266</v>
       </c>
       <c r="AW49" t="n">
-        <v>0.0008622278142327618</v>
+        <v>0.0008622278142327616</v>
       </c>
     </row>
     <row r="50">
@@ -8028,7 +8028,7 @@
         <v>0.01172022495704179</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.00385225165250026</v>
+        <v>0.003852251652500261</v>
       </c>
       <c r="R50" t="n">
         <v>0.006732717360487459</v>
@@ -8118,13 +8118,13 @@
         <v>0.002441114408392574</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.0008023555049617432</v>
+        <v>0.0008023555049617431</v>
       </c>
       <c r="AV50" t="n">
         <v>0.002603792270326494</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.0008558251324439046</v>
+        <v>0.0008558251324439045</v>
       </c>
     </row>
     <row r="51">
@@ -8137,10 +8137,10 @@
         <v>0.003804569006878976</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001250501359617253</v>
+        <v>0.001250501359617252</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005063392057290417</v>
+        <v>0.005063392057290416</v>
       </c>
       <c r="E51" t="n">
         <v>0.001664256487520264</v>
@@ -8257,7 +8257,7 @@
         <v>0.002106935270235318</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.000692516133967082</v>
+        <v>0.0006925161339670819</v>
       </c>
       <c r="AR51" t="n">
         <v>0.002804059879908996</v>
@@ -8266,16 +8266,16 @@
         <v>0.000921649912495839</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.002363442586307356</v>
+        <v>0.002363442586307355</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0007768260116220514</v>
+        <v>0.0007768260116220513</v>
       </c>
       <c r="AV51" t="n">
         <v>0.002508557972824944</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.0008245231325872697</v>
+        <v>0.0008245231325872696</v>
       </c>
     </row>
     <row r="52">
@@ -8312,7 +8312,7 @@
         <v>0.002604214579442801</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0008559639387379064</v>
+        <v>0.0008559639387379063</v>
       </c>
       <c r="L52" t="n">
         <v>0.003380504017432875</v>
@@ -8321,25 +8321,25 @@
         <v>0.001111117938023477</v>
       </c>
       <c r="N52" t="n">
-        <v>0.009054354645741038</v>
+        <v>0.009054354645741039</v>
       </c>
       <c r="O52" t="n">
-        <v>0.002976022454707477</v>
+        <v>0.002976022454707476</v>
       </c>
       <c r="P52" t="n">
         <v>0.01175336414165171</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.003863143975740129</v>
+        <v>0.00386314397574013</v>
       </c>
       <c r="R52" t="n">
-        <v>0.006947623723416909</v>
+        <v>0.006947623723416908</v>
       </c>
       <c r="S52" t="n">
         <v>0.002283573486650728</v>
       </c>
       <c r="T52" t="n">
-        <v>0.008910631711218024</v>
+        <v>0.008910631711218022</v>
       </c>
       <c r="U52" t="n">
         <v>0.002928783010580098</v>
@@ -8420,13 +8420,13 @@
         <v>0.002204400283942385</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.0007245513347836349</v>
+        <v>0.0007245513347836348</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.002357048863163386</v>
+        <v>0.002357048863163385</v>
       </c>
       <c r="AW52" t="n">
-        <v>0.0007747244964517142</v>
+        <v>0.0007747244964517141</v>
       </c>
     </row>
     <row r="53">
@@ -8466,7 +8466,7 @@
         <v>0.0008693867749304189</v>
       </c>
       <c r="L53" t="n">
-        <v>0.003320137874264431</v>
+        <v>0.00332013787426443</v>
       </c>
       <c r="M53" t="n">
         <v>0.001091276546273057</v>
@@ -8484,13 +8484,13 @@
         <v>0.003794159261887626</v>
       </c>
       <c r="R53" t="n">
-        <v>0.007009181210263789</v>
+        <v>0.007009181210263788</v>
       </c>
       <c r="S53" t="n">
         <v>0.002303806454132055</v>
       </c>
       <c r="T53" t="n">
-        <v>0.00872345219715066</v>
+        <v>0.008723452197150658</v>
       </c>
       <c r="U53" t="n">
         <v>0.002867260079491052</v>
@@ -8526,7 +8526,7 @@
         <v>0.001457341239295723</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.005565502011116338</v>
+        <v>0.005565502011116337</v>
       </c>
       <c r="AG53" t="n">
         <v>0.001829292048394937</v>
@@ -8559,25 +8559,25 @@
         <v>0.002184777706327756</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.0007181017054190678</v>
+        <v>0.0007181017054190677</v>
       </c>
       <c r="AR53" t="n">
         <v>0.002742388932620403</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.0009013796523707549</v>
+        <v>0.0009013796523707548</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.002017618045118408</v>
+        <v>0.002017618045118407</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.000663158981752471</v>
+        <v>0.0006631589817524709</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.002183895594978748</v>
+        <v>0.002183895594978747</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.0007178117694396507</v>
+        <v>0.0007178117694396506</v>
       </c>
     </row>
     <row r="54">
@@ -8614,19 +8614,19 @@
         <v>0.002667042434194135</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0008766144559571563</v>
+        <v>0.0008766144559571562</v>
       </c>
       <c r="L54" t="n">
         <v>0.003213702832362174</v>
       </c>
       <c r="M54" t="n">
-        <v>0.00105629303976574</v>
+        <v>0.001056293039765739</v>
       </c>
       <c r="N54" t="n">
         <v>0.00927279504732707</v>
       </c>
       <c r="O54" t="n">
-        <v>0.003047820342637693</v>
+        <v>0.003047820342637694</v>
       </c>
       <c r="P54" t="n">
         <v>0.0111734284109781</v>
@@ -8644,7 +8644,7 @@
         <v>0.008424497975026288</v>
       </c>
       <c r="U54" t="n">
-        <v>0.002768998578502661</v>
+        <v>0.00276899857850266</v>
       </c>
       <c r="V54" t="n">
         <v>0.001629609317350507</v>
@@ -8677,10 +8677,10 @@
         <v>0.001469456902805308</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.005387086396405911</v>
+        <v>0.00538708639640591</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.001770649671723904</v>
+        <v>0.001770649671723903</v>
       </c>
       <c r="AH54" t="n">
         <v>0.008210249496233035</v>
@@ -8722,13 +8722,13 @@
         <v>0.001858575742753437</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.0006108843049140545</v>
+        <v>0.0006108843049140544</v>
       </c>
       <c r="AV54" t="n">
         <v>0.002023728821907957</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.000665167496953492</v>
+        <v>0.0006651674969534918</v>
       </c>
     </row>
     <row r="55">
@@ -8765,13 +8765,13 @@
         <v>0.002660759648719001</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0008745494042352314</v>
+        <v>0.0008745494042352312</v>
       </c>
       <c r="L55" t="n">
         <v>0.003056433143581227</v>
       </c>
       <c r="M55" t="n">
-        <v>0.001004600992837016</v>
+        <v>0.001004600992837015</v>
       </c>
       <c r="N55" t="n">
         <v>0.009250951007168468</v>
@@ -8786,7 +8786,7 @@
         <v>0.00349280498558459</v>
       </c>
       <c r="R55" t="n">
-        <v>0.006994389284398297</v>
+        <v>0.006994389284398296</v>
       </c>
       <c r="S55" t="n">
         <v>0.002298944583215083</v>
@@ -8822,7 +8822,7 @@
         <v>0.0001843577060761525</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.004460195249970932</v>
+        <v>0.004460195249970931</v>
       </c>
       <c r="AE55" t="n">
         <v>0.001465995284659712</v>
@@ -8873,13 +8873,13 @@
         <v>0.001766109287890082</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.0005804920509382309</v>
+        <v>0.0005804920509382308</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.001902521534178711</v>
+        <v>0.00190252153417871</v>
       </c>
       <c r="AW55" t="n">
-        <v>0.0006253285880450476</v>
+        <v>0.0006253285880450475</v>
       </c>
     </row>
     <row r="56">
@@ -8916,13 +8916,13 @@
         <v>0.0026324871140809</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0008652566714865687</v>
+        <v>0.0008652566714865686</v>
       </c>
       <c r="L56" t="n">
-        <v>0.002873746131360936</v>
+        <v>0.002873746131360935</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0009445546756975889</v>
+        <v>0.0009445546756975888</v>
       </c>
       <c r="N56" t="n">
         <v>0.009152652826454751</v>
@@ -8937,13 +8937,13 @@
         <v>0.003284035456820439</v>
       </c>
       <c r="R56" t="n">
-        <v>0.006915771741728054</v>
+        <v>0.006915771741728053</v>
       </c>
       <c r="S56" t="n">
         <v>0.002273104246551153</v>
       </c>
       <c r="T56" t="n">
-        <v>0.007536062798745011</v>
+        <v>0.00753606279874501</v>
       </c>
       <c r="U56" t="n">
         <v>0.002476984057577223</v>
@@ -8982,7 +8982,7 @@
         <v>0.004817221597181558</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.001583344170117915</v>
+        <v>0.001583344170117914</v>
       </c>
       <c r="AH56" t="n">
         <v>0.007897358608930561</v>
@@ -9024,10 +9024,10 @@
         <v>0.001727273376847473</v>
       </c>
       <c r="AU56" t="n">
-        <v>0.000567727304268385</v>
+        <v>0.0005677273042683849</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.001822438147643316</v>
+        <v>0.001822438147643315</v>
       </c>
       <c r="AW56" t="n">
         <v>0.0005990064518019681</v>
@@ -9067,7 +9067,7 @@
         <v>0.002588507615754967</v>
       </c>
       <c r="K57" t="n">
-        <v>0.000850801309433094</v>
+        <v>0.0008508013094330939</v>
       </c>
       <c r="L57" t="n">
         <v>0.002687881953710725</v>
@@ -9088,13 +9088,13 @@
         <v>0.003071635153642997</v>
       </c>
       <c r="R57" t="n">
-        <v>0.006804036402889432</v>
+        <v>0.006804036402889431</v>
       </c>
       <c r="S57" t="n">
         <v>0.002236378616688124</v>
       </c>
       <c r="T57" t="n">
-        <v>0.007065087186765871</v>
+        <v>0.00706508718676587</v>
       </c>
       <c r="U57" t="n">
         <v>0.002322181859992792</v>
@@ -9124,7 +9124,7 @@
         <v>0.0001726125052339857</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.004339080148732053</v>
+        <v>0.004339080148732052</v>
       </c>
       <c r="AE57" t="n">
         <v>0.001426186675985363</v>
@@ -9142,7 +9142,7 @@
         <v>0.002525335028455688</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.007965051375349429</v>
+        <v>0.007965051375349428</v>
       </c>
       <c r="AK57" t="n">
         <v>0.002617985784010401</v>
@@ -9175,13 +9175,13 @@
         <v>0.00171617740226387</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.0005640802337912861</v>
+        <v>0.000564080233791286</v>
       </c>
       <c r="AV57" t="n">
         <v>0.001781314246449464</v>
       </c>
       <c r="AW57" t="n">
-        <v>0.0005854896791366031</v>
+        <v>0.000585489679136603</v>
       </c>
     </row>
     <row r="58">
@@ -9218,7 +9218,7 @@
         <v>0.002536674635585116</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0008337646327272127</v>
+        <v>0.0008337646327272126</v>
       </c>
       <c r="L58" t="n">
         <v>0.002525846516784902</v>
@@ -9236,13 +9236,13 @@
         <v>0.008781883921628861</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.002886465658565228</v>
+        <v>0.002886465658565229</v>
       </c>
       <c r="R58" t="n">
         <v>0.006673168503212731</v>
       </c>
       <c r="S58" t="n">
-        <v>0.002193364418186251</v>
+        <v>0.00219336441818625</v>
       </c>
       <c r="T58" t="n">
         <v>0.006659851976654666</v>
@@ -9275,7 +9275,7 @@
         <v>0.0001715638265873637</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.004252193228278073</v>
+        <v>0.004252193228278072</v>
       </c>
       <c r="AE58" t="n">
         <v>0.0013976283262842</v>
@@ -9311,10 +9311,10 @@
         <v>0.0004594856998658012</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.002095258904821453</v>
+        <v>0.002095258904821452</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.0006886782982492841</v>
+        <v>0.000688678298249284</v>
       </c>
       <c r="AR58" t="n">
         <v>0.002086315025294948</v>
@@ -9323,7 +9323,7 @@
         <v>0.0006857385872102873</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.001706930756777535</v>
+        <v>0.001706930756777534</v>
       </c>
       <c r="AU58" t="n">
         <v>0.0005610410083937038</v>
@@ -9332,7 +9332,7 @@
         <v>0.001770492167187924</v>
       </c>
       <c r="AW58" t="n">
-        <v>0.0005819326336983491</v>
+        <v>0.000581932633698349</v>
       </c>
     </row>
     <row r="59">
@@ -9372,7 +9372,7 @@
         <v>0.0008162116930908503</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002405114230448014</v>
+        <v>0.002405114230448013</v>
       </c>
       <c r="M59" t="n">
         <v>0.0007905228186877555</v>
@@ -9384,16 +9384,16 @@
         <v>0.002837811520441809</v>
       </c>
       <c r="P59" t="n">
-        <v>0.008362120916569873</v>
+        <v>0.008362120916569871</v>
       </c>
       <c r="Q59" t="n">
         <v>0.002748496230860224</v>
       </c>
       <c r="R59" t="n">
-        <v>0.006534039472469414</v>
+        <v>0.006534039472469412</v>
       </c>
       <c r="S59" t="n">
-        <v>0.002147634917211981</v>
+        <v>0.00214763491721198</v>
       </c>
       <c r="T59" t="n">
         <v>0.006362882308527185</v>
@@ -9426,7 +9426,7 @@
         <v>0.0001730319766926346</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.004162673370840639</v>
+        <v>0.004162673370840638</v>
       </c>
       <c r="AE59" t="n">
         <v>0.001368204572046638</v>
@@ -9471,19 +9471,19 @@
         <v>0.001986591791381479</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.0006529611453058963</v>
+        <v>0.0006529611453058962</v>
       </c>
       <c r="AT59" t="n">
         <v>0.001677341491221261</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.0005513154871214402</v>
+        <v>0.0005513154871214401</v>
       </c>
       <c r="AV59" t="n">
         <v>0.00178564307815408</v>
       </c>
       <c r="AW59" t="n">
-        <v>0.0005869124973119047</v>
+        <v>0.0005869124973119046</v>
       </c>
     </row>
     <row r="60">
@@ -9520,7 +9520,7 @@
         <v>0.002433008675245415</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0007996912793154507</v>
+        <v>0.0007996912793154506</v>
       </c>
       <c r="L60" t="n">
         <v>0.002319330763840224</v>
@@ -9538,16 +9538,16 @@
         <v>0.008063868255080589</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.002650465321701404</v>
+        <v>0.002650465321701405</v>
       </c>
       <c r="R60" t="n">
-        <v>0.006399158312263877</v>
+        <v>0.006399158312263876</v>
       </c>
       <c r="S60" t="n">
-        <v>0.002103301623764338</v>
+        <v>0.002103301623764337</v>
       </c>
       <c r="T60" t="n">
-        <v>0.006156523832727618</v>
+        <v>0.006156523832727617</v>
       </c>
       <c r="U60" t="n">
         <v>0.002023551526972422</v>
@@ -9622,19 +9622,19 @@
         <v>0.00191573580939033</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.0006296719102685657</v>
+        <v>0.0006296719102685655</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.001631108263789584</v>
+        <v>0.001631108263789583</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.0005361193601335284</v>
+        <v>0.0005361193601335283</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.0018181093159387</v>
+        <v>0.001818109315938699</v>
       </c>
       <c r="AW60" t="n">
-        <v>0.0005975836336266666</v>
+        <v>0.0005975836336266665</v>
       </c>
     </row>
     <row r="61">
@@ -9674,22 +9674,22 @@
         <v>0.000783687128470532</v>
       </c>
       <c r="L61" t="n">
-        <v>0.002249433124382026</v>
+        <v>0.002249433124382025</v>
       </c>
       <c r="M61" t="n">
         <v>0.0007393529136472006</v>
       </c>
       <c r="N61" t="n">
-        <v>0.008289813240189927</v>
+        <v>0.008289813240189925</v>
       </c>
       <c r="O61" t="n">
-        <v>0.002724729846951718</v>
+        <v>0.002724729846951719</v>
       </c>
       <c r="P61" t="n">
         <v>0.007820847567941174</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.002570588284609033</v>
+        <v>0.002570588284609034</v>
       </c>
       <c r="R61" t="n">
         <v>0.006267390957617188</v>
@@ -9698,7 +9698,7 @@
         <v>0.002059991788710505</v>
       </c>
       <c r="T61" t="n">
-        <v>0.005989667137653974</v>
+        <v>0.005989667137653973</v>
       </c>
       <c r="U61" t="n">
         <v>0.001968708383459039</v>
@@ -9785,7 +9785,7 @@
         <v>0.001850575553723319</v>
       </c>
       <c r="AW61" t="n">
-        <v>0.0006082547699414285</v>
+        <v>0.0006082547699414283</v>
       </c>
     </row>
     <row r="62">
@@ -9885,7 +9885,7 @@
         <v>0.001289452759234339</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.003656188641752504</v>
+        <v>0.003656188641752503</v>
       </c>
       <c r="AG62" t="n">
         <v>0.001201731092079545</v>
@@ -9930,13 +9930,13 @@
         <v>0.001534943150731694</v>
       </c>
       <c r="AU62" t="n">
-        <v>0.0005045114159986719</v>
+        <v>0.0005045114159986718</v>
       </c>
       <c r="AV62" t="n">
         <v>0.001872219712246399</v>
       </c>
       <c r="AW62" t="n">
-        <v>0.0006153688608179365</v>
+        <v>0.0006153688608179364</v>
       </c>
     </row>
     <row r="63">
@@ -9976,10 +9976,10 @@
         <v>0.0007563251931550258</v>
       </c>
       <c r="L63" t="n">
-        <v>0.002103283514605793</v>
+        <v>0.002103283514605792</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0006913158599356594</v>
+        <v>0.0006913158599356592</v>
       </c>
       <c r="N63" t="n">
         <v>0.008000379708088432</v>
@@ -10030,7 +10030,7 @@
         <v>0.0001814214058656108</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.003857252680759986</v>
+        <v>0.003857252680759985</v>
       </c>
       <c r="AE63" t="n">
         <v>0.001267817645824367</v>
@@ -10081,13 +10081,13 @@
         <v>0.001499805897883619</v>
       </c>
       <c r="AU63" t="n">
-        <v>0.0004929623594878589</v>
+        <v>0.0004929623594878588</v>
       </c>
       <c r="AV63" t="n">
         <v>0.001872219712246399</v>
       </c>
       <c r="AW63" t="n">
-        <v>0.0006153688608179365</v>
+        <v>0.0006153688608179364</v>
       </c>
     </row>
     <row r="64">
@@ -10100,7 +10100,7 @@
         <v>0.003382880323850518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001111898992171991</v>
+        <v>0.00111189899217199</v>
       </c>
       <c r="D64" t="n">
         <v>0.0030091286442484</v>
@@ -10124,7 +10124,7 @@
         <v>0.002268085556523163</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0007454836716149197</v>
+        <v>0.0007454836716149196</v>
       </c>
       <c r="L64" t="n">
         <v>0.002017500047998003</v>
@@ -10145,13 +10145,13 @@
         <v>0.002305541752438893</v>
       </c>
       <c r="R64" t="n">
-        <v>0.005956195930602105</v>
+        <v>0.005956195930602104</v>
       </c>
       <c r="S64" t="n">
         <v>0.001957706929719939</v>
       </c>
       <c r="T64" t="n">
-        <v>0.005414331367079598</v>
+        <v>0.005414331367079597</v>
       </c>
       <c r="U64" t="n">
         <v>0.001779604660530409</v>
@@ -10190,7 +10190,7 @@
         <v>0.003381907920630502</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.001111579378689747</v>
+        <v>0.001111579378689746</v>
       </c>
       <c r="AH64" t="n">
         <v>0.006839054872616632</v>
@@ -10238,7 +10238,7 @@
         <v>0.001857068801280243</v>
       </c>
       <c r="AW64" t="n">
-        <v>0.0006103889972043809</v>
+        <v>0.0006103889972043808</v>
       </c>
     </row>
     <row r="65">
@@ -10257,7 +10257,7 @@
         <v>0.00288118144205201</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0009469985441388119</v>
+        <v>0.0009469985441388118</v>
       </c>
       <c r="F65" t="n">
         <v>0.001049880079443987</v>
@@ -10275,19 +10275,19 @@
         <v>0.002241383718253845</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0007367072017967385</v>
+        <v>0.0007367072017967384</v>
       </c>
       <c r="L65" t="n">
         <v>0.001931716581390214</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0006349245360134153</v>
+        <v>0.0006349245360134151</v>
       </c>
       <c r="N65" t="n">
         <v>0.007792861326581701</v>
       </c>
       <c r="O65" t="n">
-        <v>0.002561389651910476</v>
+        <v>0.002561389651910475</v>
       </c>
       <c r="P65" t="n">
         <v>0.006716208080943833</v>
@@ -10296,7 +10296,7 @@
         <v>0.002207510843280074</v>
       </c>
       <c r="R65" t="n">
-        <v>0.005887819259578392</v>
+        <v>0.005887819259578391</v>
       </c>
       <c r="S65" t="n">
         <v>0.0019352326047894</v>
@@ -10338,7 +10338,7 @@
         <v>0.001234932273441209</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.003238110261013142</v>
+        <v>0.003238110261013141</v>
       </c>
       <c r="AG65" t="n">
         <v>0.0010643153736116</v>
@@ -10389,7 +10389,7 @@
         <v>0.001835424642757163</v>
       </c>
       <c r="AW65" t="n">
-        <v>0.0006032749063278729</v>
+        <v>0.0006032749063278728</v>
       </c>
     </row>
     <row r="66">
@@ -10408,7 +10408,7 @@
         <v>0.002760342417755422</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0009072806775672007</v>
+        <v>0.0009072806775672006</v>
       </c>
       <c r="F66" t="n">
         <v>0.001041051375201991</v>
@@ -10450,7 +10450,7 @@
         <v>0.005840950838088652</v>
       </c>
       <c r="S66" t="n">
-        <v>0.0019198276996109</v>
+        <v>0.001919827699610899</v>
       </c>
       <c r="T66" t="n">
         <v>0.004991684710654286</v>
@@ -10483,13 +10483,13 @@
         <v>0.0001763877483618251</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.00372560583158729</v>
+        <v>0.003725605831587289</v>
       </c>
       <c r="AE66" t="n">
         <v>0.001224547419004423</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.003102301360263414</v>
+        <v>0.003102301360263413</v>
       </c>
       <c r="AG66" t="n">
         <v>0.00101967714659335</v>
@@ -10574,7 +10574,7 @@
         <v>0.0002744131220373444</v>
       </c>
       <c r="J67" t="n">
-        <v>0.002213111183615746</v>
+        <v>0.002213111183615745</v>
       </c>
       <c r="K67" t="n">
         <v>0.0007274144690480761</v>
@@ -10589,7 +10589,7 @@
         <v>0.007694563145867988</v>
       </c>
       <c r="O67" t="n">
-        <v>0.002529080602341879</v>
+        <v>0.002529080602341878</v>
       </c>
       <c r="P67" t="n">
         <v>0.006197027522055083</v>
@@ -10598,7 +10598,7 @@
         <v>0.002036864445855463</v>
       </c>
       <c r="R67" t="n">
-        <v>0.005820288264155658</v>
+        <v>0.005820288264155657</v>
       </c>
       <c r="S67" t="n">
         <v>0.001913036239987041</v>
@@ -10634,7 +10634,7 @@
         <v>0.0001759682769031763</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.003709808209686567</v>
+        <v>0.003709808209686566</v>
       </c>
       <c r="AE67" t="n">
         <v>0.00121935499178603</v>
@@ -10691,7 +10691,7 @@
         <v>0.001815944900086392</v>
       </c>
       <c r="AW67" t="n">
-        <v>0.0005968722245390159</v>
+        <v>0.0005968722245390158</v>
       </c>
     </row>
     <row r="68">
@@ -10749,7 +10749,7 @@
         <v>0.001976956668036185</v>
       </c>
       <c r="R68" t="n">
-        <v>0.005857077152105906</v>
+        <v>0.005857077152105905</v>
       </c>
       <c r="S68" t="n">
         <v>0.001925128162703494</v>
@@ -10794,7 +10794,7 @@
         <v>0.002899919468950092</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.0009531574357426252</v>
+        <v>0.0009531574357426251</v>
       </c>
       <c r="AH68" t="n">
         <v>0.00669213724826536</v>
@@ -10836,7 +10836,7 @@
         <v>0.001507203214272688</v>
       </c>
       <c r="AU68" t="n">
-        <v>0.0004953937398059249</v>
+        <v>0.0004953937398059248</v>
       </c>
       <c r="AV68" t="n">
         <v>0.001820273731791007</v>
@@ -10861,7 +10861,7 @@
         <v>0.002528141939695309</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0008309600712139081</v>
+        <v>0.000830960071213908</v>
       </c>
       <c r="F69" t="n">
         <v>0.001066066037220979</v>
@@ -10879,16 +10879,16 @@
         <v>0.00227593903836708</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0007480649862673261</v>
+        <v>0.0007480649862673259</v>
       </c>
       <c r="L69" t="n">
         <v>0.001695017756861315</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0005571253946762451</v>
+        <v>0.000557125394676245</v>
       </c>
       <c r="N69" t="n">
-        <v>0.00791300354745402</v>
+        <v>0.007913003547454021</v>
       </c>
       <c r="O69" t="n">
         <v>0.002600878490272095</v>
@@ -10942,7 +10942,7 @@
         <v>0.001253971173241985</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.002841335237254131</v>
+        <v>0.00284133523725413</v>
       </c>
       <c r="AG69" t="n">
         <v>0.0009339017299700469</v>
@@ -10975,7 +10975,7 @@
         <v>0.001879894831632375</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.0006178915505654569</v>
+        <v>0.0006178915505654568</v>
       </c>
       <c r="AR69" t="n">
         <v>0.001400061718232522</v>
@@ -10984,13 +10984,13 @@
         <v>0.0004601780330524381</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.001558984428996167</v>
+        <v>0.001558984428996166</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.0005124134020323861</v>
+        <v>0.000512413402032386</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.001822438147643316</v>
+        <v>0.001822438147643315</v>
       </c>
       <c r="AW69" t="n">
         <v>0.0005990064518019681</v>
@@ -11027,7 +11027,7 @@
         <v>0.0002585157486572843</v>
       </c>
       <c r="J70" t="n">
-        <v>0.002379604998706781</v>
+        <v>0.00237960499870678</v>
       </c>
       <c r="K70" t="n">
         <v>0.0007821383396790881</v>
@@ -11036,7 +11036,7 @@
         <v>0.001679131929711724</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0005519039757945559</v>
+        <v>0.0005519039757945558</v>
       </c>
       <c r="N70" t="n">
         <v>0.008273430210070973</v>
@@ -11045,7 +11045,7 @@
         <v>0.002719345005356952</v>
       </c>
       <c r="P70" t="n">
-        <v>0.005838019688780947</v>
+        <v>0.005838019688780948</v>
       </c>
       <c r="Q70" t="n">
         <v>0.001918864277423551</v>
@@ -11087,7 +11087,7 @@
         <v>0.0001763877483618251</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.003988899529932682</v>
+        <v>0.003988899529932681</v>
       </c>
       <c r="AE70" t="n">
         <v>0.001311087872644311</v>
@@ -11096,7 +11096,7 @@
         <v>0.002814706041028694</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.0009251491364370567</v>
+        <v>0.0009251491364370566</v>
       </c>
       <c r="AH70" t="n">
         <v>0.007029036698902463</v>
@@ -11138,7 +11138,7 @@
         <v>0.001642204238373186</v>
       </c>
       <c r="AU70" t="n">
-        <v>0.0005397664306106272</v>
+        <v>0.0005397664306106271</v>
       </c>
       <c r="AV70" t="n">
         <v>0.001820273731791007</v>
@@ -11178,10 +11178,10 @@
         <v>0.0002594940485575957</v>
       </c>
       <c r="J71" t="n">
-        <v>0.00254295742106025</v>
+        <v>0.002542957421060249</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0008358296844491378</v>
+        <v>0.0008358296844491377</v>
       </c>
       <c r="L71" t="n">
         <v>0.00168548626057156</v>
@@ -11202,16 +11202,16 @@
         <v>0.00192612582625013</v>
       </c>
       <c r="R71" t="n">
-        <v>0.006702253546319381</v>
+        <v>0.00670225354631938</v>
       </c>
       <c r="S71" t="n">
         <v>0.002202924209553848</v>
       </c>
       <c r="T71" t="n">
-        <v>0.004580402781763338</v>
+        <v>0.004580402781763337</v>
       </c>
       <c r="U71" t="n">
-        <v>0.001505505589682659</v>
+        <v>0.001505505589682658</v>
       </c>
       <c r="V71" t="n">
         <v>0.001551777230551677</v>
@@ -11238,16 +11238,16 @@
         <v>0.0001761780126325007</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.004262724976211889</v>
+        <v>0.004262724976211888</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.001401089944429796</v>
+        <v>0.001401089944429795</v>
       </c>
       <c r="AF71" t="n">
         <v>0.002825357719518868</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.0009286501738502527</v>
+        <v>0.0009286501738502526</v>
       </c>
       <c r="AH71" t="n">
         <v>0.007425438569110729</v>
@@ -11289,13 +11289,13 @@
         <v>0.001769807946084616</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.000581707741097264</v>
+        <v>0.0005817077410972638</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.0018181093159387</v>
+        <v>0.001818109315938699</v>
       </c>
       <c r="AW71" t="n">
-        <v>0.0005975836336266666</v>
+        <v>0.0005975836336266665</v>
       </c>
     </row>
     <row r="72">
@@ -11311,10 +11311,10 @@
         <v>0.001344442964219041</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002551835866027974</v>
+        <v>0.002551835866027973</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000838747888188734</v>
+        <v>0.0008387478881887339</v>
       </c>
       <c r="F72" t="n">
         <v>0.001284576467210373</v>
@@ -11344,7 +11344,7 @@
         <v>0.00953492352923031</v>
       </c>
       <c r="O72" t="n">
-        <v>0.003133977808153953</v>
+        <v>0.003133977808153952</v>
       </c>
       <c r="P72" t="n">
         <v>0.005948483637480681</v>
@@ -11353,7 +11353,7 @@
         <v>0.001955172021556447</v>
       </c>
       <c r="R72" t="n">
-        <v>0.007242623862742504</v>
+        <v>0.007242623862742503</v>
       </c>
       <c r="S72" t="n">
         <v>0.002380535343472602</v>
@@ -11362,7 +11362,7 @@
         <v>0.004654727455117471</v>
       </c>
       <c r="U72" t="n">
-        <v>0.001529934928436774</v>
+        <v>0.001529934928436773</v>
       </c>
       <c r="V72" t="n">
         <v>0.001733385433082281</v>
@@ -11395,10 +11395,10 @@
         <v>0.001510996320552454</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.002867964433479568</v>
+        <v>0.002867964433479567</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.0009426543235030371</v>
+        <v>0.000942654323503037</v>
       </c>
       <c r="AH72" t="n">
         <v>0.007925381744498769</v>
@@ -11437,16 +11437,16 @@
         <v>0.0004644908543556474</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.001976932804978532</v>
+        <v>0.001976932804978531</v>
       </c>
       <c r="AU72" t="n">
-        <v>0.0006497863900031088</v>
+        <v>0.0006497863900031087</v>
       </c>
       <c r="AV72" t="n">
         <v>0.001870055296394091</v>
       </c>
       <c r="AW72" t="n">
-        <v>0.0006146574517302857</v>
+        <v>0.0006146574517302856</v>
       </c>
     </row>
     <row r="73">
@@ -11465,7 +11465,7 @@
         <v>0.002615809467126168</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0008597749940207636</v>
+        <v>0.0008597749940207635</v>
       </c>
       <c r="F73" t="n">
         <v>0.001378749312458326</v>
@@ -11507,7 +11507,7 @@
         <v>0.007813824352843241</v>
       </c>
       <c r="S73" t="n">
-        <v>0.002568279865439091</v>
+        <v>0.00256827986543909</v>
       </c>
       <c r="T73" t="n">
         <v>0.004800308647751764</v>
@@ -11546,10 +11546,10 @@
         <v>0.001621768101211511</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.002939863263288248</v>
+        <v>0.002939863263288247</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.0009662863260421104</v>
+        <v>0.0009662863260421103</v>
       </c>
       <c r="AH73" t="n">
         <v>0.008433247161031936</v>
@@ -11588,16 +11588,16 @@
         <v>0.0004761354718743127</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.00230981204248661</v>
+        <v>0.002309812042486609</v>
       </c>
       <c r="AU73" t="n">
-        <v>0.0007591985043160738</v>
+        <v>0.0007591985043160737</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.002051866227987961</v>
+        <v>0.00205186622798796</v>
       </c>
       <c r="AW73" t="n">
-        <v>0.0006744158150929523</v>
+        <v>0.0006744158150929522</v>
       </c>
     </row>
     <row r="74">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.004640918228218751</v>
+        <v>0.00464091822821875</v>
       </c>
       <c r="C74" t="n">
         <v>0.001525396055050355</v>
@@ -11640,7 +11640,7 @@
         <v>0.001810984295053326</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0005952417525125767</v>
+        <v>0.0005952417525125766</v>
       </c>
       <c r="N74" t="n">
         <v>0.01081826088854825</v>
@@ -11661,7 +11661,7 @@
         <v>0.002740778570041107</v>
       </c>
       <c r="T74" t="n">
-        <v>0.005023148283761854</v>
+        <v>0.005023148283761853</v>
       </c>
       <c r="U74" t="n">
         <v>0.001651028998829007</v>
@@ -11697,10 +11697,10 @@
         <v>0.001714366386606192</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.003035728369699821</v>
+        <v>0.00303572836969982</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.0009977956627608747</v>
+        <v>0.0009977956627608745</v>
       </c>
       <c r="AH74" t="n">
         <v>0.008864132749356846</v>
@@ -11739,16 +11739,16 @@
         <v>0.0004916616285658662</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.002809130898748728</v>
+        <v>0.002809130898748727</v>
       </c>
       <c r="AU74" t="n">
-        <v>0.0009233166757855214</v>
+        <v>0.0009233166757855212</v>
       </c>
       <c r="AV74" t="n">
         <v>0.002428474586289549</v>
       </c>
       <c r="AW74" t="n">
-        <v>0.0007982009963441903</v>
+        <v>0.0007982009963441902</v>
       </c>
     </row>
     <row r="75">
@@ -11767,7 +11767,7 @@
         <v>0.002802991485154217</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000921298748121887</v>
+        <v>0.0009212987481218869</v>
       </c>
       <c r="F75" t="n">
         <v>0.001509708425381262</v>
@@ -11782,16 +11782,16 @@
         <v>0.0002893321955170931</v>
       </c>
       <c r="J75" t="n">
-        <v>0.003223068948743442</v>
+        <v>0.003223068948743441</v>
       </c>
       <c r="K75" t="n">
-        <v>0.001059371533347518</v>
+        <v>0.001059371533347517</v>
       </c>
       <c r="L75" t="n">
         <v>0.001879293351796565</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0006176938537038407</v>
+        <v>0.0006176938537038406</v>
       </c>
       <c r="N75" t="n">
         <v>0.01120599260136346</v>
@@ -11809,7 +11809,7 @@
         <v>0.008761258221488532</v>
       </c>
       <c r="S75" t="n">
-        <v>0.002879686318770917</v>
+        <v>0.002879686318770916</v>
       </c>
       <c r="T75" t="n">
         <v>0.00532276055646433</v>
@@ -11881,7 +11881,7 @@
         <v>0.002662211314361375</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.0008750265436579138</v>
+        <v>0.0008750265436579137</v>
       </c>
       <c r="AR75" t="n">
         <v>0.001552270864732027</v>
@@ -11899,7 +11899,7 @@
         <v>0.003034511024935781</v>
       </c>
       <c r="AW75" t="n">
-        <v>0.0009973955408864124</v>
+        <v>0.0009973955408864121</v>
       </c>
     </row>
     <row r="76">
@@ -11933,7 +11933,7 @@
         <v>0.0003018055192460633</v>
       </c>
       <c r="J76" t="n">
-        <v>0.003284326107125993</v>
+        <v>0.003284326107125992</v>
       </c>
       <c r="K76" t="n">
         <v>0.001079505787636286</v>
@@ -11948,7 +11948,7 @@
         <v>0.01141897199290984</v>
       </c>
       <c r="O76" t="n">
-        <v>0.003753234591552071</v>
+        <v>0.00375323459155207</v>
       </c>
       <c r="P76" t="n">
         <v>0.006815625634773595</v>
@@ -11963,10 +11963,10 @@
         <v>0.002982459710741616</v>
       </c>
       <c r="T76" t="n">
-        <v>0.005678071539498302</v>
+        <v>0.005678071539498301</v>
       </c>
       <c r="U76" t="n">
-        <v>0.00186629186310157</v>
+        <v>0.001866291863101569</v>
       </c>
       <c r="V76" t="n">
         <v>0.003714860642835833</v>
@@ -11993,7 +11993,7 @@
         <v>0.0003636817546485192</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.005505471232402136</v>
+        <v>0.005505471232402135</v>
       </c>
       <c r="AE76" t="n">
         <v>0.001809560885610069</v>
@@ -12011,7 +12011,7 @@
         <v>0.003062690908795154</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.006325278081812529</v>
+        <v>0.006325278081812528</v>
       </c>
       <c r="AK76" t="n">
         <v>0.002079018366328028</v>
@@ -12038,16 +12038,16 @@
         <v>0.001619190403279224</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.0005322021488160343</v>
+        <v>0.0005322021488160342</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.004236812961838929</v>
+        <v>0.004236812961838928</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.001392573077172238</v>
+        <v>0.001392573077172237</v>
       </c>
       <c r="AV76" t="n">
-        <v>0.00375309708790203</v>
+        <v>0.003753097087902029</v>
       </c>
       <c r="AW76" t="n">
         <v>0.001233583357986476</v>
@@ -12066,7 +12066,7 @@
         <v>0.001625497764871933</v>
       </c>
       <c r="D77" t="n">
-        <v>0.003061255282180262</v>
+        <v>0.003061255282180261</v>
       </c>
       <c r="E77" t="n">
         <v>0.001006185953147488</v>
@@ -12108,10 +12108,10 @@
         <v>0.002345480270985079</v>
       </c>
       <c r="R77" t="n">
-        <v>0.009298554417032803</v>
+        <v>0.009298554417032801</v>
       </c>
       <c r="S77" t="n">
-        <v>0.003056287038019392</v>
+        <v>0.003056287038019391</v>
       </c>
       <c r="T77" t="n">
         <v>0.006053619219578647</v>
@@ -12144,7 +12144,7 @@
         <v>0.0004299582451150313</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.005558129972071215</v>
+        <v>0.005558129972071214</v>
       </c>
       <c r="AE77" t="n">
         <v>0.001826868976338047</v>
@@ -12162,7 +12162,7 @@
         <v>0.003092545856905092</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0.006520762570442421</v>
+        <v>0.00652076257044242</v>
       </c>
       <c r="AK77" t="n">
         <v>0.002143271010549691</v>
@@ -12198,7 +12198,7 @@
         <v>0.001617475756593332</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.00443705249723135</v>
+        <v>0.004437052497231349</v>
       </c>
       <c r="AW77" t="n">
         <v>0.001458388629684127</v>
@@ -12235,7 +12235,7 @@
         <v>0.0003318882411806384</v>
       </c>
       <c r="J78" t="n">
-        <v>0.003333017694558277</v>
+        <v>0.003333017694558276</v>
       </c>
       <c r="K78" t="n">
         <v>0.001095509938481205</v>
@@ -12244,28 +12244,28 @@
         <v>0.002155706744199441</v>
       </c>
       <c r="M78" t="n">
-        <v>0.000708546542245234</v>
+        <v>0.0007085465422452337</v>
       </c>
       <c r="N78" t="n">
         <v>0.01158826330413901</v>
       </c>
       <c r="O78" t="n">
-        <v>0.003808877954697987</v>
+        <v>0.003808877954697988</v>
       </c>
       <c r="P78" t="n">
-        <v>0.007494978919276958</v>
+        <v>0.007494978919276957</v>
       </c>
       <c r="Q78" t="n">
         <v>0.00246348043941699</v>
       </c>
       <c r="R78" t="n">
-        <v>0.009444463646887159</v>
+        <v>0.009444463646887157</v>
       </c>
       <c r="S78" t="n">
         <v>0.003104245082671409</v>
       </c>
       <c r="T78" t="n">
-        <v>0.006416038124127391</v>
+        <v>0.00641603812412739</v>
       </c>
       <c r="U78" t="n">
         <v>0.002108849749622283</v>
@@ -12301,7 +12301,7 @@
         <v>0.001836388426238435</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.003613581927791804</v>
+        <v>0.003613581927791803</v>
       </c>
       <c r="AG78" t="n">
         <v>0.00118772694242676</v>
@@ -12349,7 +12349,7 @@
         <v>0.001775515477267615</v>
       </c>
       <c r="AV78" t="n">
-        <v>0.004930539311557569</v>
+        <v>0.004930539311557568</v>
       </c>
       <c r="AW78" t="n">
         <v>0.001620589901668508</v>
@@ -12395,16 +12395,16 @@
         <v>0.002268496116961535</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0007456186163052279</v>
+        <v>0.0007456186163052277</v>
       </c>
       <c r="N79" t="n">
         <v>0.01164287340453552</v>
       </c>
       <c r="O79" t="n">
-        <v>0.003826827426680542</v>
+        <v>0.003826827426680543</v>
       </c>
       <c r="P79" t="n">
-        <v>0.007887125937161015</v>
+        <v>0.007887125937161014</v>
       </c>
       <c r="Q79" t="n">
         <v>0.002592372931088771</v>
@@ -12416,7 +12416,7 @@
         <v>0.003129185695907995</v>
       </c>
       <c r="T79" t="n">
-        <v>0.006737280789321183</v>
+        <v>0.006737280789321181</v>
       </c>
       <c r="U79" t="n">
         <v>0.002214437107576778</v>
@@ -12446,7 +12446,7 @@
         <v>0.0004962347355815435</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.005613421648723747</v>
+        <v>0.005613421648723746</v>
       </c>
       <c r="AE79" t="n">
         <v>0.001845042471602424</v>
@@ -12494,16 +12494,16 @@
         <v>0.0006158708820982958</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.005573877899163044</v>
+        <v>0.005573877899163043</v>
       </c>
       <c r="AU79" t="n">
         <v>0.001832045069662647</v>
       </c>
       <c r="AV79" t="n">
-        <v>0.005121007906560671</v>
+        <v>0.00512100790656067</v>
       </c>
       <c r="AW79" t="n">
-        <v>0.001683193901381778</v>
+        <v>0.001683193901381777</v>
       </c>
     </row>
     <row r="80">
@@ -12516,7 +12516,7 @@
         <v>0.004989982749170085</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001640128014768934</v>
+        <v>0.001640128014768933</v>
       </c>
       <c r="D80" t="n">
         <v>0.003549350164633152</v>
@@ -12552,10 +12552,10 @@
         <v>0.01163195138445622</v>
       </c>
       <c r="O80" t="n">
-        <v>0.003823237532284031</v>
+        <v>0.003823237532284032</v>
       </c>
       <c r="P80" t="n">
-        <v>0.008273749757610083</v>
+        <v>0.008273749757610084</v>
       </c>
       <c r="Q80" t="n">
         <v>0.002719450035553907</v>
@@ -12567,10 +12567,10 @@
         <v>0.00311906998428404</v>
       </c>
       <c r="T80" t="n">
-        <v>0.006996647108772288</v>
+        <v>0.006996647108772287</v>
       </c>
       <c r="U80" t="n">
-        <v>0.0022996866941991</v>
+        <v>0.002299686694199099</v>
       </c>
       <c r="V80" t="n">
         <v>0.004793159345361292</v>
@@ -12603,10 +12603,10 @@
         <v>0.001843311662529626</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.003989053594570467</v>
+        <v>0.003989053594570466</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.001311138511241922</v>
+        <v>0.001311138511241921</v>
       </c>
       <c r="AH80" t="n">
         <v>0.00951166964564077</v>
@@ -12642,16 +12642,16 @@
         <v>0.001965597426347064</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.0006460606312207613</v>
+        <v>0.0006460606312207612</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.005466616811521553</v>
+        <v>0.005466616811521551</v>
       </c>
       <c r="AU80" t="n">
         <v>0.001796790055050692</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.005040924520025276</v>
+        <v>0.005040924520025275</v>
       </c>
       <c r="AW80" t="n">
         <v>0.001656871765138698</v>
@@ -12694,10 +12694,10 @@
         <v>0.001086217205732542</v>
       </c>
       <c r="L81" t="n">
-        <v>0.002473423287191253</v>
+        <v>0.002473423287191252</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0008129749198790194</v>
+        <v>0.0008129749198790193</v>
       </c>
       <c r="N81" t="n">
         <v>0.0114899651234253</v>
@@ -12706,7 +12706,7 @@
         <v>0.00377656890512939</v>
       </c>
       <c r="P81" t="n">
-        <v>0.008599618406274299</v>
+        <v>0.008599618406274301</v>
       </c>
       <c r="Q81" t="n">
         <v>0.00282655788074595</v>
@@ -12721,7 +12721,7 @@
         <v>0.007169464400678327</v>
       </c>
       <c r="U81" t="n">
-        <v>0.002356488991148671</v>
+        <v>0.00235648899114867</v>
       </c>
       <c r="V81" t="n">
         <v>0.004509396528907225</v>
@@ -12766,7 +12766,7 @@
         <v>0.003094643305931402</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0.007564201200243791</v>
+        <v>0.00756420120024379</v>
       </c>
       <c r="AK81" t="n">
         <v>0.002486232702895014</v>
@@ -12796,13 +12796,13 @@
         <v>0.0006715062769096964</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.00514298421949981</v>
+        <v>0.005142984219499809</v>
       </c>
       <c r="AU81" t="n">
         <v>0.001690417166135309</v>
       </c>
       <c r="AV81" t="n">
-        <v>0.004759550459225239</v>
+        <v>0.004759550459225238</v>
       </c>
       <c r="AW81" t="n">
         <v>0.001564388583744095</v>
@@ -12818,7 +12818,7 @@
         <v>0.004776795692750142</v>
       </c>
       <c r="C82" t="n">
-        <v>0.001570056817893829</v>
+        <v>0.001570056817893828</v>
       </c>
       <c r="D82" t="n">
         <v>0.003786289427959798</v>
@@ -12848,7 +12848,7 @@
         <v>0.002538555178504574</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0008343827372939456</v>
+        <v>0.0008343827372939455</v>
       </c>
       <c r="N82" t="n">
         <v>0.011134999470848</v>
@@ -12857,7 +12857,7 @@
         <v>0.003659897337242788</v>
       </c>
       <c r="P82" t="n">
-        <v>0.008826069501108754</v>
+        <v>0.008826069501108756</v>
       </c>
       <c r="Q82" t="n">
         <v>0.002900988756218387</v>
@@ -12872,7 +12872,7 @@
         <v>0.007243837336137425</v>
       </c>
       <c r="U82" t="n">
-        <v>0.00238093419288957</v>
+        <v>0.002380934192889569</v>
       </c>
       <c r="V82" t="n">
         <v>0.004092670564171821</v>
@@ -12899,7 +12899,7 @@
         <v>0.0004215688159420552</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.005368558509262533</v>
+        <v>0.005368558509262532</v>
       </c>
       <c r="AE82" t="n">
         <v>0.001764559849717327</v>
@@ -12947,13 +12947,13 @@
         <v>0.0006891888442528549</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.004667706641502165</v>
+        <v>0.004667706641502164</v>
       </c>
       <c r="AU82" t="n">
-        <v>0.001534200980699576</v>
+        <v>0.001534200980699575</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.004350475863139031</v>
+        <v>0.00435047586313903</v>
       </c>
       <c r="AW82" t="n">
         <v>0.001429932266178095</v>
@@ -12999,7 +12999,7 @@
         <v>0.002563972501943919</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0008427370075046484</v>
+        <v>0.000842737007504648</v>
       </c>
       <c r="N83" t="n">
         <v>0.01053428836648641</v>
@@ -13014,7 +13014,7 @@
         <v>0.002930034951524703</v>
       </c>
       <c r="R83" t="n">
-        <v>0.008411519779492888</v>
+        <v>0.008411519779492886</v>
       </c>
       <c r="S83" t="n">
         <v>0.002764732851916928</v>
@@ -13095,16 +13095,16 @@
         <v>0.00211780657284657</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.0006960893583379898</v>
+        <v>0.0006960893583379897</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.004098113279543897</v>
+        <v>0.004098113279543896</v>
       </c>
       <c r="AU83" t="n">
         <v>0.001346984696208502</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.003876468791483585</v>
+        <v>0.003876468791483584</v>
       </c>
       <c r="AW83" t="n">
         <v>0.001274133675982571</v>
@@ -13144,34 +13144,34 @@
         <v>0.002811546500122203</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0009241106455614308</v>
+        <v>0.0009241106455614306</v>
       </c>
       <c r="L84" t="n">
-        <v>0.002554441005654165</v>
+        <v>0.002554441005654164</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0008396041561756346</v>
+        <v>0.0008396041561756345</v>
       </c>
       <c r="N84" t="n">
         <v>0.009775207970974944</v>
       </c>
       <c r="O84" t="n">
-        <v>0.00321295548487719</v>
+        <v>0.003212955484877191</v>
       </c>
       <c r="P84" t="n">
         <v>0.008881301475458622</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.002919142628284835</v>
+        <v>0.002919142628284834</v>
       </c>
       <c r="R84" t="n">
-        <v>0.007740340040991752</v>
+        <v>0.007740340040991751</v>
       </c>
       <c r="S84" t="n">
         <v>0.002544126740153499</v>
       </c>
       <c r="T84" t="n">
-        <v>0.00707712195995781</v>
+        <v>0.007077121959957808</v>
       </c>
       <c r="U84" t="n">
         <v>0.002326137498650415</v>
@@ -13207,7 +13207,7 @@
         <v>0.001549074120154005</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.004281974753050274</v>
+        <v>0.004281974753050272</v>
       </c>
       <c r="AG84" t="n">
         <v>0.001407417040104813</v>
@@ -13216,7 +13216,7 @@
         <v>0.008200086042771752</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.002695237943358119</v>
+        <v>0.002695237943358118</v>
       </c>
       <c r="AJ84" t="n">
         <v>0.007689901169246641</v>
@@ -13249,13 +13249,13 @@
         <v>0.0006935016655560641</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.003498930652029356</v>
+        <v>0.003498930652029355</v>
       </c>
       <c r="AU84" t="n">
         <v>0.001150042890445165</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.003387310808861982</v>
+        <v>0.003387310808861981</v>
       </c>
       <c r="AW84" t="n">
         <v>0.001113355222173492</v>
@@ -13292,7 +13292,7 @@
         <v>0.0003888742103737768</v>
       </c>
       <c r="J85" t="n">
-        <v>0.002582224830279834</v>
+        <v>0.002582224830279833</v>
       </c>
       <c r="K85" t="n">
         <v>0.000848736257711169</v>
@@ -13304,7 +13304,7 @@
         <v>0.0008302056021885939</v>
       </c>
       <c r="N85" t="n">
-        <v>0.008977900505185927</v>
+        <v>0.008977900505185928</v>
       </c>
       <c r="O85" t="n">
         <v>0.0029508931939319</v>
@@ -13313,7 +13313,7 @@
         <v>0.008781883921628861</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002886465658565228</v>
+        <v>0.002886465658565229</v>
       </c>
       <c r="R85" t="n">
         <v>0.007047363663578687</v>
@@ -13403,13 +13403,13 @@
         <v>0.002925638631876554</v>
       </c>
       <c r="AU85" t="n">
-        <v>0.000961610915795059</v>
+        <v>0.0009616109157950588</v>
       </c>
       <c r="AV85" t="n">
         <v>0.002924125816468075</v>
       </c>
       <c r="AW85" t="n">
-        <v>0.000961113677416222</v>
+        <v>0.0009611136774162218</v>
       </c>
     </row>
     <row r="86">
@@ -13443,7 +13443,7 @@
         <v>0.0003827598359968307</v>
       </c>
       <c r="J86" t="n">
-        <v>0.002379604998706781</v>
+        <v>0.00237960499870678</v>
       </c>
       <c r="K86" t="n">
         <v>0.0007821383396790881</v>
@@ -13503,7 +13503,7 @@
         <v>0.0002449713318509057</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.003988899529932682</v>
+        <v>0.003988899529932681</v>
       </c>
       <c r="AE86" t="n">
         <v>0.001311087872644311</v>
@@ -13512,7 +13512,7 @@
         <v>0.004167469209280895</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.001369780887912956</v>
+        <v>0.001369780887912955</v>
       </c>
       <c r="AH86" t="n">
         <v>0.007099728070209507</v>
@@ -13548,19 +13548,19 @@
         <v>0.002053511329928675</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.000674956533952264</v>
+        <v>0.0006749565339522639</v>
       </c>
       <c r="AT86" t="n">
         <v>0.002441114408392574</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.0008023555049617432</v>
+        <v>0.0008023555049617431</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.002528037715495716</v>
+        <v>0.002528037715495715</v>
       </c>
       <c r="AW86" t="n">
-        <v>0.0008309258143761269</v>
+        <v>0.0008309258143761267</v>
       </c>
     </row>
     <row r="87">
@@ -13612,7 +13612,7 @@
         <v>0.002547030074324432</v>
       </c>
       <c r="P87" t="n">
-        <v>0.00850020085244454</v>
+        <v>0.008500200852444538</v>
       </c>
       <c r="Q87" t="n">
         <v>0.002793880911026344</v>
@@ -13660,7 +13660,7 @@
         <v>0.001228009037150018</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.004098233299094758</v>
+        <v>0.004098233299094757</v>
       </c>
       <c r="AG87" t="n">
         <v>0.001347024144727181</v>
@@ -13696,7 +13696,7 @@
         <v>0.0006050987648394638</v>
       </c>
       <c r="AR87" t="n">
-        <v>0.002019395486747752</v>
+        <v>0.002019395486747751</v>
       </c>
       <c r="AS87" t="n">
         <v>0.0006637431985639196</v>
@@ -13705,13 +13705,13 @@
         <v>0.002089741879911824</v>
       </c>
       <c r="AU87" t="n">
-        <v>0.0006868649398536135</v>
+        <v>0.0006868649398536134</v>
       </c>
       <c r="AV87" t="n">
         <v>0.002233677159581831</v>
       </c>
       <c r="AW87" t="n">
-        <v>0.0007341741784556189</v>
+        <v>0.0007341741784556188</v>
       </c>
     </row>
     <row r="88">
@@ -13745,7 +13745,7 @@
         <v>0.0003705310872429382</v>
       </c>
       <c r="J88" t="n">
-        <v>0.002125152186963878</v>
+        <v>0.002125152186963877</v>
       </c>
       <c r="K88" t="n">
         <v>0.0006985037449411264</v>
@@ -13775,10 +13775,10 @@
         <v>0.001867435336631555</v>
       </c>
       <c r="T88" t="n">
-        <v>0.00641780751414946</v>
+        <v>0.006417807514149459</v>
       </c>
       <c r="U88" t="n">
-        <v>0.0021094313199984</v>
+        <v>0.002109431319998399</v>
       </c>
       <c r="V88" t="n">
         <v>0.001626366313733889</v>
@@ -13805,7 +13805,7 @@
         <v>0.0001961029069183192</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.003562363738613148</v>
+        <v>0.003562363738613147</v>
       </c>
       <c r="AE88" t="n">
         <v>0.001170892337747692</v>
@@ -13853,16 +13853,16 @@
         <v>0.0006533924274362171</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.001854877084558903</v>
+        <v>0.001854877084558902</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.0006096686147550216</v>
+        <v>0.0006096686147550215</v>
       </c>
       <c r="AV88" t="n">
         <v>0.002023728821907957</v>
       </c>
       <c r="AW88" t="n">
-        <v>0.000665167496953492</v>
+        <v>0.0006651674969534918</v>
       </c>
     </row>
     <row r="89">
@@ -13899,19 +13899,19 @@
         <v>0.002057612243106193</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0006763044389304327</v>
+        <v>0.0006763044389304325</v>
       </c>
       <c r="L89" t="n">
         <v>0.002371753993433873</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0007795578390362082</v>
+        <v>0.0007795578390362081</v>
       </c>
       <c r="N89" t="n">
-        <v>0.007153923151942557</v>
+        <v>0.007153923151942558</v>
       </c>
       <c r="O89" t="n">
-        <v>0.002351380829714591</v>
+        <v>0.002351380829714592</v>
       </c>
       <c r="P89" t="n">
         <v>0.008246133770435151</v>
@@ -14001,19 +14001,19 @@
         <v>0.00195903668727381</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.0006439042205691566</v>
+        <v>0.0006439042205691565</v>
       </c>
       <c r="AT89" t="n">
         <v>0.001708780085874802</v>
       </c>
       <c r="AU89" t="n">
-        <v>0.0005616488534732204</v>
+        <v>0.0005616488534732203</v>
       </c>
       <c r="AV89" t="n">
         <v>0.001876548543951015</v>
       </c>
       <c r="AW89" t="n">
-        <v>0.000616791678993238</v>
+        <v>0.0006167916789932379</v>
       </c>
     </row>
     <row r="90">
@@ -14023,7 +14023,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.003003360509124906</v>
+        <v>0.003003360509124905</v>
       </c>
       <c r="C90" t="n">
         <v>0.0009871568614712547</v>
@@ -14056,13 +14056,13 @@
         <v>0.002339982339134692</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0007691150012728296</v>
+        <v>0.0007691150012728294</v>
       </c>
       <c r="N90" t="n">
-        <v>0.007001014870832335</v>
+        <v>0.007001014870832334</v>
       </c>
       <c r="O90" t="n">
-        <v>0.00230112230816344</v>
+        <v>0.002301122308163441</v>
       </c>
       <c r="P90" t="n">
         <v>0.008135669821735417</v>
@@ -14080,7 +14080,7 @@
         <v>0.006197681142161382</v>
       </c>
       <c r="U90" t="n">
-        <v>0.002037079280395229</v>
+        <v>0.002037079280395228</v>
       </c>
       <c r="V90" t="n">
         <v>0.001420435584078651</v>
@@ -14107,7 +14107,7 @@
         <v>0.0001715638265873637</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.003375425212787919</v>
+        <v>0.003375425212787918</v>
       </c>
       <c r="AE90" t="n">
         <v>0.001109448615663371</v>
@@ -14128,7 +14128,7 @@
         <v>0.007139391453651154</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.002346604491464953</v>
+        <v>0.002346604491464952</v>
       </c>
       <c r="AL90" t="n">
         <v>0.001230881360081423</v>
@@ -14158,13 +14158,13 @@
         <v>0.001620012289205981</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.0005324722896564296</v>
+        <v>0.0005324722896564295</v>
       </c>
       <c r="AV90" t="n">
         <v>0.001770492167187924</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.0005819326336983491</v>
+        <v>0.000581932633698349</v>
       </c>
     </row>
     <row r="91">
@@ -14177,7 +14177,7 @@
         <v>0.002954163496104919</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0009709865852693075</v>
+        <v>0.0009709865852693074</v>
       </c>
       <c r="D91" t="n">
         <v>0.003445096888769428</v>
@@ -14201,13 +14201,13 @@
         <v>0.001980648121035809</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0006510075553368516</v>
+        <v>0.0006510075553368515</v>
       </c>
       <c r="L91" t="n">
         <v>0.00230979926755047</v>
       </c>
       <c r="M91" t="n">
-        <v>0.00075919430539762</v>
+        <v>0.0007591943053976199</v>
       </c>
       <c r="N91" t="n">
         <v>0.006886333659999667</v>
@@ -14222,7 +14222,7 @@
         <v>0.002639572998461536</v>
       </c>
       <c r="R91" t="n">
-        <v>0.00526006206433473</v>
+        <v>0.005260062064334729</v>
       </c>
       <c r="S91" t="n">
         <v>0.001728898792801145</v>
@@ -14258,7 +14258,7 @@
         <v>0.0001629646616850631</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.003320133536135387</v>
+        <v>0.003320133536135386</v>
       </c>
       <c r="AE91" t="n">
         <v>0.001091275120398994</v>
@@ -14309,13 +14309,13 @@
         <v>0.001564532416287968</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.0005142369372709354</v>
+        <v>0.0005142369372709353</v>
       </c>
       <c r="AV91" t="n">
         <v>0.001681751117243297</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.0005527648611046666</v>
+        <v>0.0005527648611046665</v>
       </c>
     </row>
     <row r="92">
@@ -14352,16 +14352,16 @@
         <v>0.001949234193660142</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0006406822967272266</v>
+        <v>0.0006406822967272265</v>
       </c>
       <c r="L92" t="n">
         <v>0.002271673282391452</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0007466629000815656</v>
+        <v>0.0007466629000815655</v>
       </c>
       <c r="N92" t="n">
-        <v>0.00677711345920665</v>
+        <v>0.006777113459206651</v>
       </c>
       <c r="O92" t="n">
         <v>0.002227529473034968</v>
@@ -14373,13 +14373,13 @@
         <v>0.00259600370550206</v>
       </c>
       <c r="R92" t="n">
-        <v>0.005173237169966882</v>
+        <v>0.005173237169966881</v>
       </c>
       <c r="S92" t="n">
         <v>0.001700360830088599</v>
       </c>
       <c r="T92" t="n">
-        <v>0.005992140965755138</v>
+        <v>0.005992140965755137</v>
       </c>
       <c r="U92" t="n">
         <v>0.001969521491434837</v>
@@ -14415,10 +14415,10 @@
         <v>0.001073967029671017</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.003807975060237495</v>
+        <v>0.003807975060237494</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.001251620875217589</v>
+        <v>0.001251620875217588</v>
       </c>
       <c r="AH92" t="n">
         <v>0.005860844477751228</v>
@@ -14454,19 +14454,19 @@
         <v>0.001876371374950802</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.0006167334463589376</v>
+        <v>0.0006167334463589375</v>
       </c>
       <c r="AT92" t="n">
         <v>0.001523847176148092</v>
       </c>
       <c r="AU92" t="n">
-        <v>0.0005008643455215731</v>
+        <v>0.000500864345521573</v>
       </c>
       <c r="AV92" t="n">
         <v>0.00160383214656021</v>
       </c>
       <c r="AW92" t="n">
-        <v>0.000527154133949238</v>
+        <v>0.0005271541339492379</v>
       </c>
     </row>
     <row r="93">
@@ -14524,13 +14524,13 @@
         <v>0.002527018991649558</v>
       </c>
       <c r="R93" t="n">
-        <v>0.005068071610992922</v>
+        <v>0.005068071610992921</v>
       </c>
       <c r="S93" t="n">
         <v>0.001665794582441608</v>
       </c>
       <c r="T93" t="n">
-        <v>0.005827205100073091</v>
+        <v>0.00582720510007309</v>
       </c>
       <c r="U93" t="n">
         <v>0.001915309694011232</v>
@@ -14566,7 +14566,7 @@
         <v>0.001052331916261045</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.003706784114580834</v>
+        <v>0.003706784114580833</v>
       </c>
       <c r="AG93" t="n">
         <v>0.001218361019792226</v>
@@ -14605,19 +14605,19 @@
         <v>0.001826509757994067</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.000600344725406742</v>
+        <v>0.0006003447254067419</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.001488709923300017</v>
+        <v>0.001488709923300016</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.00048931528901076</v>
+        <v>0.0004893152890107599</v>
       </c>
       <c r="AV93" t="n">
         <v>0.001534570839286355</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.0005043890431444127</v>
+        <v>0.0005043890431444126</v>
       </c>
     </row>
     <row r="94">
@@ -14633,7 +14633,7 @@
         <v>0.000910155546223887</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00315603098751092</v>
+        <v>0.003156030987510919</v>
       </c>
       <c r="E94" t="n">
         <v>0.00103733722104679</v>
@@ -14660,7 +14660,7 @@
         <v>0.002115992176325464</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0006954929950410108</v>
+        <v>0.0006954929950410106</v>
       </c>
       <c r="N94" t="n">
         <v>0.006454913866867255</v>
@@ -14669,7 +14669,7 @@
         <v>0.002121627588337899</v>
       </c>
       <c r="P94" t="n">
-        <v>0.007356898983402289</v>
+        <v>0.007356898983402291</v>
       </c>
       <c r="Q94" t="n">
         <v>0.00241809575925087</v>
@@ -14711,13 +14711,13 @@
         <v>0.0001422008244819469</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.003112131514442528</v>
+        <v>0.003112131514442527</v>
       </c>
       <c r="AE94" t="n">
         <v>0.001022908162023483</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.003547008937228212</v>
+        <v>0.003547008937228211</v>
       </c>
       <c r="AG94" t="n">
         <v>0.001165845458594285</v>
@@ -14762,13 +14762,13 @@
         <v>0.00144802468316014</v>
       </c>
       <c r="AU94" t="n">
-        <v>0.0004759426972613977</v>
+        <v>0.0004759426972613976</v>
       </c>
       <c r="AV94" t="n">
         <v>0.001467473947864807</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.000482335361427238</v>
+        <v>0.0004823353614272379</v>
       </c>
     </row>
     <row r="95">
@@ -14787,7 +14787,7 @@
         <v>0.002947524435783472</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0009688044316683241</v>
+        <v>0.000968804431668324</v>
       </c>
       <c r="F95" t="n">
         <v>0.0008343125508685923</v>
@@ -14805,13 +14805,13 @@
         <v>0.001781169682200323</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0005854421631657335</v>
+        <v>0.0005854421631657333</v>
       </c>
       <c r="L95" t="n">
         <v>0.001976196897409068</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0006495445088821454</v>
+        <v>0.0006495445088821452</v>
       </c>
       <c r="N95" t="n">
         <v>0.006192785384964015</v>
@@ -14820,16 +14820,16 @@
         <v>0.002035470122821639</v>
       </c>
       <c r="P95" t="n">
-        <v>0.006870857609123463</v>
+        <v>0.006870857609123462</v>
       </c>
       <c r="Q95" t="n">
         <v>0.002258341685066128</v>
       </c>
       <c r="R95" t="n">
-        <v>0.004727214762115275</v>
+        <v>0.004727214762115274</v>
       </c>
       <c r="S95" t="n">
-        <v>0.001553760354074172</v>
+        <v>0.001553760354074171</v>
       </c>
       <c r="T95" t="n">
         <v>0.005213847366165082</v>
@@ -14913,13 +14913,13 @@
         <v>0.001392544810242127</v>
       </c>
       <c r="AU95" t="n">
-        <v>0.0004577073448759035</v>
+        <v>0.0004577073448759034</v>
       </c>
       <c r="AV95" t="n">
         <v>0.00140037705644326</v>
       </c>
       <c r="AW95" t="n">
-        <v>0.0004602816797100634</v>
+        <v>0.0004602816797100633</v>
       </c>
     </row>
     <row r="96">
@@ -14938,7 +14938,7 @@
         <v>0.002696368816657227</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0008862535717351711</v>
+        <v>0.000886253571735171</v>
       </c>
       <c r="F96" t="n">
         <v>0.0007901690296586139</v>
@@ -14953,10 +14953,10 @@
         <v>0.00027832632163859</v>
       </c>
       <c r="J96" t="n">
-        <v>0.001686927900073322</v>
+        <v>0.001686927900073321</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0005544663873368586</v>
+        <v>0.0005544663873368585</v>
       </c>
       <c r="L96" t="n">
         <v>0.001807807129623408</v>
@@ -14968,10 +14968,10 @@
         <v>0.005865124782584968</v>
       </c>
       <c r="O96" t="n">
-        <v>0.001927773290926314</v>
+        <v>0.001927773290926315</v>
       </c>
       <c r="P96" t="n">
-        <v>0.00628539868101487</v>
+        <v>0.006285398681014871</v>
       </c>
       <c r="Q96" t="n">
         <v>0.00206591064116178</v>
@@ -14983,7 +14983,7 @@
         <v>0.001472180863354702</v>
       </c>
       <c r="T96" t="n">
-        <v>0.004781689619570849</v>
+        <v>0.004781689619570847</v>
       </c>
       <c r="U96" t="n">
         <v>0.001571665373851703</v>
@@ -15016,7 +15016,7 @@
         <v>0.002827774320229505</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.0009294444720924029</v>
+        <v>0.0009294444720924028</v>
       </c>
       <c r="AF96" t="n">
         <v>0.003030402530454733</v>
@@ -15061,16 +15061,16 @@
         <v>0.0004907990643052244</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.001327818291837779</v>
+        <v>0.001327818291837778</v>
       </c>
       <c r="AU96" t="n">
-        <v>0.000436432767092827</v>
+        <v>0.0004364327670928269</v>
       </c>
       <c r="AV96" t="n">
         <v>0.001337608996726329</v>
       </c>
       <c r="AW96" t="n">
-        <v>0.0004396508161681905</v>
+        <v>0.0004396508161681904</v>
       </c>
     </row>
     <row r="97">
@@ -15104,7 +15104,7 @@
         <v>0.0002506893494547932</v>
       </c>
       <c r="J97" t="n">
-        <v>0.001583261939733621</v>
+        <v>0.00158326193973362</v>
       </c>
       <c r="K97" t="n">
         <v>0.0005203930339250963</v>
@@ -15122,10 +15122,10 @@
         <v>0.001809306775841457</v>
       </c>
       <c r="P97" t="n">
-        <v>0.005661277370861372</v>
+        <v>0.005661277370861373</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.001860771886810918</v>
+        <v>0.001860771886810917</v>
       </c>
       <c r="R97" t="n">
         <v>0.004207379968354226</v>
@@ -15134,7 +15134,7 @@
         <v>0.001382898920045983</v>
       </c>
       <c r="T97" t="n">
-        <v>0.004323270854492554</v>
+        <v>0.004323270854492553</v>
       </c>
       <c r="U97" t="n">
         <v>0.001420990412254744</v>
@@ -15164,10 +15164,10 @@
         <v>0.0001241635517600481</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.002654000479321547</v>
+        <v>0.002654000479321546</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.0008723277726900766</v>
+        <v>0.0008723277726900765</v>
       </c>
       <c r="AF97" t="n">
         <v>0.002729492613107295</v>
@@ -15215,13 +15215,13 @@
         <v>0.00126309177343343</v>
       </c>
       <c r="AU97" t="n">
-        <v>0.0004151581893097505</v>
+        <v>0.0004151581893097504</v>
       </c>
       <c r="AV97" t="n">
         <v>0.001281334184566322</v>
       </c>
       <c r="AW97" t="n">
-        <v>0.0004211541798892698</v>
+        <v>0.0004211541798892697</v>
       </c>
     </row>
   </sheetData>
